--- a/public/template_sekolah.xlsx
+++ b/public/template_sekolah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A7FA7F-478C-470C-B052-8AA4344EDDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5995E7B-68C0-4211-A797-45D6E7F8A08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,8 +341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B0C8D-E1AC-452B-9B63-7AAC23FA97FE}">
   <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247:A249"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1765,7 +1765,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5">
-        <v>20606898</v>
+        <v>20613439</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">

--- a/public/template_sekolah.xlsx
+++ b/public/template_sekolah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5995E7B-68C0-4211-A797-45D6E7F8A08D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D277E-049F-4CB6-9115-3A24673DDF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,10 +339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B0C8D-E1AC-452B-9B63-7AAC23FA97FE}">
-  <dimension ref="A1:B249"/>
+  <dimension ref="A1:B349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2344,6 +2344,806 @@
         <v>20613916</v>
       </c>
     </row>
+    <row r="250" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="11">
+        <v>50100288</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="11">
+        <v>20622306</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252" s="11">
+        <v>20614509</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>252</v>
+      </c>
+      <c r="B253" s="11">
+        <v>20607491</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>253</v>
+      </c>
+      <c r="B254" s="11">
+        <v>20401192</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>254</v>
+      </c>
+      <c r="B255" s="11">
+        <v>20267644</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256" s="11">
+        <v>20200606</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>256</v>
+      </c>
+      <c r="B257" s="11">
+        <v>20219145</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258" s="11">
+        <v>60728389</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>258</v>
+      </c>
+      <c r="B259" s="11">
+        <v>20252398</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260" s="11">
+        <v>69759252</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>260</v>
+      </c>
+      <c r="B261" s="11">
+        <v>20314863</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262" s="11">
+        <v>20319296</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>262</v>
+      </c>
+      <c r="B263" s="11">
+        <v>20341017</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>263</v>
+      </c>
+      <c r="B264" s="11">
+        <v>69947441</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>264</v>
+      </c>
+      <c r="B265" s="11">
+        <v>20339165</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>265</v>
+      </c>
+      <c r="B266" s="11">
+        <v>20310436</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>266</v>
+      </c>
+      <c r="B267" s="11">
+        <v>20339066</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>267</v>
+      </c>
+      <c r="B268" s="11">
+        <v>20525592</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>268</v>
+      </c>
+      <c r="B269" s="11">
+        <v>20523754</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>269</v>
+      </c>
+      <c r="B270" s="11">
+        <v>20549236</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>270</v>
+      </c>
+      <c r="B271" s="11">
+        <v>20511015</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>271</v>
+      </c>
+      <c r="B272" s="11">
+        <v>20533643</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>272</v>
+      </c>
+      <c r="B273" s="11">
+        <v>20554703</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>273</v>
+      </c>
+      <c r="B274" s="11">
+        <v>20547845</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>274</v>
+      </c>
+      <c r="B275" s="11">
+        <v>30108295</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>275</v>
+      </c>
+      <c r="B276" s="11">
+        <v>30105521</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>276</v>
+      </c>
+      <c r="B277" s="11">
+        <v>30304520</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>277</v>
+      </c>
+      <c r="B278" s="11">
+        <v>30304270</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>278</v>
+      </c>
+      <c r="B279" s="11">
+        <v>30400114</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>279</v>
+      </c>
+      <c r="B280" s="11">
+        <v>10807613</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>280</v>
+      </c>
+      <c r="B281" s="11">
+        <v>60101983</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>281</v>
+      </c>
+      <c r="B282" s="11">
+        <v>69990904</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>282</v>
+      </c>
+      <c r="B283" s="11">
+        <v>10303507</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>283</v>
+      </c>
+      <c r="B284" s="11">
+        <v>10603684</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285" s="11">
+        <v>10203547</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
+      <c r="B286" s="11">
+        <v>10220602</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287" s="11">
+        <v>10206514</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>287</v>
+      </c>
+      <c r="B288" s="11">
+        <v>10259305</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>288</v>
+      </c>
+      <c r="B289" s="11">
+        <v>10211061</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
+        <v>289</v>
+      </c>
+      <c r="B290" s="11">
+        <v>30401713</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>290</v>
+      </c>
+      <c r="B291" s="11">
+        <v>50205416</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>291</v>
+      </c>
+      <c r="B292" s="11">
+        <v>50302628</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>292</v>
+      </c>
+      <c r="B293" s="11">
+        <v>10402106</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A294" s="2">
+        <v>293</v>
+      </c>
+      <c r="B294" s="11">
+        <v>40604625</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="11">
+        <v>40601490</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="11">
+        <v>10609726</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="11">
+        <v>69759278</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="11">
+        <v>10214027</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299" s="11">
+        <v>10261695</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="11">
+        <v>69899478</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="11">
+        <v>10700642</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>301</v>
+      </c>
+      <c r="B302" s="11">
+        <v>20402089</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="11">
+        <v>20404181</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304" s="11">
+        <v>20265214</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="11">
+        <v>20244755</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="11">
+        <v>20247201</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="11">
+        <v>20232491</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="11">
+        <v>20231416</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="11">
+        <v>20200607</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310" s="11">
+        <v>69727436</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311" s="11">
+        <v>20252208</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312" s="11">
+        <v>20244688</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>312</v>
+      </c>
+      <c r="B313" s="11">
+        <v>20246375</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>313</v>
+      </c>
+      <c r="B314" s="11">
+        <v>20209203</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>314</v>
+      </c>
+      <c r="B315" s="11">
+        <v>20209202</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>315</v>
+      </c>
+      <c r="B316" s="11">
+        <v>20258507</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A317" s="2">
+        <v>316</v>
+      </c>
+      <c r="B317" s="11">
+        <v>20237434</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A318" s="2">
+        <v>317</v>
+      </c>
+      <c r="B318" s="11">
+        <v>20212918</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>318</v>
+      </c>
+      <c r="B319" s="11">
+        <v>20223114</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320" s="11">
+        <v>20223131</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321" s="11">
+        <v>20326454</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A322" s="2">
+        <v>321</v>
+      </c>
+      <c r="B322" s="11">
+        <v>20361510</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323" s="11">
+        <v>20324226</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="11">
+        <v>20329859</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="11">
+        <v>20507704</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="11">
+        <v>20519149</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="11">
+        <v>20533816</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="11">
+        <v>30401714</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>328</v>
+      </c>
+      <c r="B329" s="11">
+        <v>10900451</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A330" s="2">
+        <v>329</v>
+      </c>
+      <c r="B330" s="11">
+        <v>10807614</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A331" s="2">
+        <v>330</v>
+      </c>
+      <c r="B331" s="11">
+        <v>60105436</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A332" s="2">
+        <v>331</v>
+      </c>
+      <c r="B332" s="11">
+        <v>50204505</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A333" s="2">
+        <v>332</v>
+      </c>
+      <c r="B333" s="11">
+        <v>50302299</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A334" s="2">
+        <v>333</v>
+      </c>
+      <c r="B334" s="11">
+        <v>60400380</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
+        <v>334</v>
+      </c>
+      <c r="B335" s="11">
+        <v>10400262</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
+        <v>335</v>
+      </c>
+      <c r="B336" s="11">
+        <v>40311963</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>336</v>
+      </c>
+      <c r="B337" s="11">
+        <v>40311967</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <v>337</v>
+      </c>
+      <c r="B338" s="11">
+        <v>40203629</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <v>338</v>
+      </c>
+      <c r="B339" s="11">
+        <v>10259915</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <v>339</v>
+      </c>
+      <c r="B340" s="11">
+        <v>20341442</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <v>340</v>
+      </c>
+      <c r="B341" s="11">
+        <v>69756197</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A342" s="2">
+        <v>341</v>
+      </c>
+      <c r="B342" s="11">
+        <v>20330038</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>342</v>
+      </c>
+      <c r="B343" s="11">
+        <v>20532182</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>343</v>
+      </c>
+      <c r="B344" s="11">
+        <v>20534176</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <v>344</v>
+      </c>
+      <c r="B345" s="11">
+        <v>20528658</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>345</v>
+      </c>
+      <c r="B346" s="11">
+        <v>20525629</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>346</v>
+      </c>
+      <c r="B347" s="11">
+        <v>20584049</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A348" s="2">
+        <v>347</v>
+      </c>
+      <c r="B348" s="11">
+        <v>30107328</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>348</v>
+      </c>
+      <c r="B349" s="11">
+        <v>10814657</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B248">
     <sortCondition ref="B2:B248"/>

--- a/public/template_sekolah.xlsx
+++ b/public/template_sekolah.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3D277E-049F-4CB6-9115-3A24673DDF69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42DEBC8-246F-4561-9308-0C3116277C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -86,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -113,11 +113,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -339,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B0C8D-E1AC-452B-9B63-7AAC23FA97FE}">
-  <dimension ref="A1:B349"/>
+  <dimension ref="A1:B463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A264" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -380,24 +401,24 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>10210766</v>
+      <c r="B4" s="10">
+        <v>10105338</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>10211592</v>
+      <c r="B5" s="10">
+        <v>10203547</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>10214028</v>
+      <c r="B6" s="10">
+        <v>10204073</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -405,23 +426,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>10259665</v>
+        <v>10205190</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>10303913</v>
+      <c r="B8" s="10">
+        <v>10205204</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>10304893</v>
+      <c r="B9" s="10">
+        <v>10206514</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -429,47 +450,47 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>10308093</v>
+        <v>10210766</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>10310877</v>
+      <c r="B11" s="10">
+        <v>10211061</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>10404309</v>
+      <c r="B12" s="10">
+        <v>10211075</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>10494319</v>
+      <c r="B13" s="10">
+        <v>10211092</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>10494620</v>
+      <c r="B14" s="10">
+        <v>10211096</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>10601343</v>
+      <c r="B15" s="10">
+        <v>10211227</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -477,95 +498,95 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>10604624</v>
+        <v>10211592</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>10646355</v>
+      <c r="B17" s="10">
+        <v>10212136</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
-        <v>10700287</v>
+      <c r="B18" s="10">
+        <v>10214027</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
-        <v>10802055</v>
+      <c r="B19" s="4">
+        <v>10214028</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
-        <v>10804184</v>
+      <c r="B20" s="10">
+        <v>10220307</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
-        <v>10805046</v>
+      <c r="B21" s="10">
+        <v>10220602</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
-        <v>11000382</v>
+      <c r="B22" s="10">
+        <v>10259305</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
-        <v>11003119</v>
+      <c r="B23" s="10">
+        <v>10259665</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
-        <v>20100166</v>
+      <c r="B24" s="10">
+        <v>10259915</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4">
-        <v>20100294</v>
+      <c r="B25" s="10">
+        <v>10260807</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
-        <v>20101501</v>
+      <c r="B26" s="10">
+        <v>10260919</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
-        <v>20101648</v>
+      <c r="B27" s="10">
+        <v>10261412</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -573,39 +594,39 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>20103659</v>
+        <v>10261695</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4">
-        <v>20112443</v>
+      <c r="B29" s="10">
+        <v>10300825</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
-        <v>20209201</v>
+      <c r="B30" s="10">
+        <v>10303507</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
-        <v>20209208</v>
+      <c r="B31" s="4">
+        <v>10303913</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="10">
-        <v>20212911</v>
+      <c r="B32" s="3">
+        <v>10304893</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -613,7 +634,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>20212921</v>
+        <v>10308093</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -621,63 +642,63 @@
         <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>20214797</v>
+        <v>10310877</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
-        <v>20214822</v>
+      <c r="B35" s="10">
+        <v>10400262</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4">
-        <v>20214984</v>
+      <c r="B36" s="10">
+        <v>10402106</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
-        <v>20215998</v>
+      <c r="B37" s="10">
+        <v>10403923</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="10">
-        <v>20216001</v>
+      <c r="B38" s="3">
+        <v>10404309</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="4">
-        <v>20216003</v>
+      <c r="B39" s="3">
+        <v>10494319</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
-        <v>20216007</v>
+      <c r="B40" s="10">
+        <v>10494574</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="10">
-        <v>20217038</v>
+      <c r="B41" s="3">
+        <v>10494620</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -685,15 +706,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="10">
-        <v>20217366</v>
+        <v>10495604</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="4">
-        <v>20217367</v>
+      <c r="B43" s="10">
+        <v>10503769</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -701,15 +722,15 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>20217802</v>
+        <v>10601343</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
-        <v>20217803</v>
+      <c r="B45" s="10">
+        <v>10603684</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -717,23 +738,23 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>20219144</v>
+        <v>10604624</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="4">
-        <v>20221566</v>
+      <c r="B47" s="10">
+        <v>10609726</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="10">
-        <v>20222170</v>
+      <c r="B48" s="3">
+        <v>10646355</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -741,39 +762,39 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>20224136</v>
+        <v>10700287</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4">
-        <v>20227940</v>
+      <c r="B50" s="10">
+        <v>10700642</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="4">
-        <v>20228510</v>
+      <c r="B51" s="10">
+        <v>10703107</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="4">
-        <v>20228539</v>
+      <c r="B52" s="10">
+        <v>10703236</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
-        <v>20229659</v>
+      <c r="B53" s="10">
+        <v>10802055</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -781,23 +802,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>20231741</v>
+        <v>10804184</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="10">
-        <v>20232480</v>
+      <c r="B55" s="4">
+        <v>10805046</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="4">
-        <v>20235643</v>
+      <c r="B56" s="10">
+        <v>10807229</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -805,15 +826,15 @@
         <v>56</v>
       </c>
       <c r="B57" s="10">
-        <v>20237408</v>
+        <v>10807613</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4">
-        <v>20237410</v>
+      <c r="B58" s="10">
+        <v>10807614</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -821,7 +842,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="10">
-        <v>20237465</v>
+        <v>10812426</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -829,7 +850,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="10">
-        <v>20244687</v>
+        <v>10814657</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -837,7 +858,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10">
-        <v>20246369</v>
+        <v>10814962</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -845,7 +866,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10">
-        <v>20247197</v>
+        <v>10900451</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -853,7 +874,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4">
-        <v>20247198</v>
+        <v>11000382</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -861,71 +882,71 @@
         <v>63</v>
       </c>
       <c r="B64" s="10">
-        <v>20251830</v>
+        <v>11000439</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
-        <v>20252030</v>
+      <c r="B65" s="4">
+        <v>11003119</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="10">
-        <v>20253319</v>
+      <c r="B66" s="3">
+        <v>20100166</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="10">
-        <v>20253779</v>
+      <c r="B67" s="4">
+        <v>20100294</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
-        <v>20253861</v>
+      <c r="B68" s="7">
+        <v>20101501</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="11">
-        <v>20262128</v>
+      <c r="B69" s="8">
+        <v>20101648</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="8">
-        <v>20268221</v>
+      <c r="B70" s="12">
+        <v>20103659</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="11">
-        <v>20268734</v>
+      <c r="B71" s="8">
+        <v>20112443</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="7">
-        <v>20269696</v>
+      <c r="B72" s="11">
+        <v>20200606</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -933,7 +954,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="11">
-        <v>20270735</v>
+        <v>20200607</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -941,31 +962,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="11">
-        <v>20271664</v>
+        <v>20206225</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="7">
-        <v>20275815</v>
+      <c r="B75" s="11">
+        <v>20208396</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="11">
-        <v>20279827</v>
+      <c r="B76" s="7">
+        <v>20209201</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="8">
-        <v>20279927</v>
+      <c r="B77" s="11">
+        <v>20209202</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -973,7 +994,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="11">
-        <v>20280609</v>
+        <v>20209203</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -981,7 +1002,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7">
-        <v>20300690</v>
+        <v>20209208</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -989,55 +1010,55 @@
         <v>79</v>
       </c>
       <c r="B80" s="11">
-        <v>20300693</v>
+        <v>20212908</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-      <c r="B81" s="11">
-        <v>20301899</v>
+      <c r="B81" s="12">
+        <v>20212911</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-      <c r="B82" s="7">
-        <v>20302124</v>
+      <c r="B82" s="11">
+        <v>20212918</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-      <c r="B83" s="8">
-        <v>20303942</v>
+      <c r="B83" s="7">
+        <v>20212921</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-      <c r="B84" s="7">
-        <v>20307703</v>
+      <c r="B84" s="8">
+        <v>20214797</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="8">
-        <v>20307715</v>
+      <c r="B85" s="7">
+        <v>20214822</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="7">
-        <v>20308417</v>
+      <c r="B86" s="8">
+        <v>20214984</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1045,23 +1066,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="7">
-        <v>20309531</v>
+        <v>20215998</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="11">
-        <v>20310441</v>
+      <c r="B88" s="12">
+        <v>20216001</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="11">
-        <v>20313046</v>
+      <c r="B89" s="8">
+        <v>20216003</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1069,55 +1090,55 @@
         <v>89</v>
       </c>
       <c r="B90" s="7">
-        <v>20314900</v>
+        <v>20216007</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-      <c r="B91" s="11">
-        <v>20315656</v>
+      <c r="B91" s="12">
+        <v>20217038</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-      <c r="B92" s="11">
-        <v>20321425</v>
+      <c r="B92" s="12">
+        <v>20217366</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-      <c r="B93" s="7">
-        <v>20321847</v>
+      <c r="B93" s="8">
+        <v>20217367</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-      <c r="B94" s="8">
-        <v>20323505</v>
+      <c r="B94" s="11">
+        <v>20217795</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B95" s="7">
-        <v>20328108</v>
+      <c r="B95" s="11">
+        <v>20217796</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B96" s="11">
-        <v>20328116</v>
+      <c r="B96" s="7">
+        <v>20217802</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1125,47 +1146,47 @@
         <v>96</v>
       </c>
       <c r="B97" s="7">
-        <v>20328132</v>
+        <v>20217803</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="8">
-        <v>20328152</v>
+      <c r="B98" s="7">
+        <v>20219144</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B99" s="7">
-        <v>20328153</v>
+      <c r="B99" s="11">
+        <v>20219145</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B100" s="11">
-        <v>20328945</v>
+      <c r="B100" s="8">
+        <v>20221566</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="7">
-        <v>20328962</v>
+      <c r="B101" s="12">
+        <v>20222170</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B102" s="8">
-        <v>20328981</v>
+      <c r="B102" s="11">
+        <v>20223110</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1173,7 +1194,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="11">
-        <v>20330119</v>
+        <v>20223114</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1181,55 +1202,55 @@
         <v>103</v>
       </c>
       <c r="B104" s="11">
-        <v>20330307</v>
+        <v>20223131</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="11">
-        <v>20330334</v>
+      <c r="B105" s="7">
+        <v>20224136</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B106" s="5">
-        <v>20331126</v>
+      <c r="B106" s="11">
+        <v>20224614</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
-      <c r="B107" s="5">
-        <v>20339029</v>
+      <c r="B107" s="8">
+        <v>20227940</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
-      <c r="B108" s="6">
-        <v>20339040</v>
+      <c r="B108" s="8">
+        <v>20228510</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
-      <c r="B109" s="6">
-        <v>20340348</v>
+      <c r="B109" s="8">
+        <v>20228539</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
-      <c r="B110" s="11">
-        <v>20341010</v>
+      <c r="B110" s="7">
+        <v>20229659</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1237,23 +1258,23 @@
         <v>110</v>
       </c>
       <c r="B111" s="11">
-        <v>20341206</v>
+        <v>20231416</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
-      <c r="B112" s="11">
-        <v>20341390</v>
+      <c r="B112" s="7">
+        <v>20231741</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
-      <c r="B113" s="11">
-        <v>20352230</v>
+      <c r="B113" s="12">
+        <v>20232480</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1261,143 +1282,143 @@
         <v>113</v>
       </c>
       <c r="B114" s="11">
-        <v>20360275</v>
+        <v>20232491</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
-      <c r="B115" s="11">
-        <v>20360301</v>
+      <c r="B115" s="8">
+        <v>20235643</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
-      <c r="B116" s="5">
-        <v>20360363</v>
+      <c r="B116" s="12">
+        <v>20237408</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="5">
-        <v>20360536</v>
+      <c r="B117" s="8">
+        <v>20237410</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="5">
-        <v>20360896</v>
+      <c r="B118" s="11">
+        <v>20237434</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="6">
-        <v>20361045</v>
+      <c r="B119" s="12">
+        <v>20237465</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="6">
-        <v>20362773</v>
+      <c r="B120" s="11">
+        <v>20238571</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="6">
-        <v>20400432</v>
+      <c r="B121" s="12">
+        <v>20244687</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="6">
-        <v>20400446</v>
+      <c r="B122" s="11">
+        <v>20244688</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="6">
-        <v>20401176</v>
+      <c r="B123" s="11">
+        <v>20244755</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="5">
-        <v>20401194</v>
+      <c r="B124" s="12">
+        <v>20246369</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="6">
-        <v>20401315</v>
+      <c r="B125" s="11">
+        <v>20246375</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="11">
-        <v>20402093</v>
+      <c r="B126" s="12">
+        <v>20247197</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="6">
-        <v>20402787</v>
+      <c r="B127" s="8">
+        <v>20247198</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
-      <c r="B128" s="6">
-        <v>20402815</v>
+      <c r="B128" s="11">
+        <v>20247201</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
-      <c r="B129" s="6">
-        <v>20403275</v>
+      <c r="B129" s="12">
+        <v>20251830</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
-      <c r="B130" s="5">
-        <v>20404182</v>
+      <c r="B130" s="11">
+        <v>20251887</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
-      <c r="B131" s="6">
-        <v>20500411</v>
+      <c r="B131" s="7">
+        <v>20252030</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1405,47 +1426,47 @@
         <v>131</v>
       </c>
       <c r="B132" s="11">
-        <v>20500423</v>
+        <v>20252207</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
-      <c r="B133" s="6">
-        <v>20500424</v>
+      <c r="B133" s="11">
+        <v>20252208</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
-      <c r="B134" s="6">
-        <v>20501715</v>
+      <c r="B134" s="11">
+        <v>20252398</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
-      <c r="B135" s="5">
-        <v>20501720</v>
+      <c r="B135" s="12">
+        <v>20253319</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
-      <c r="B136" s="6">
-        <v>20503434</v>
+      <c r="B136" s="12">
+        <v>20253779</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
-      <c r="B137" s="6">
-        <v>20504482</v>
+      <c r="B137" s="7">
+        <v>20253861</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1453,7 +1474,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="11">
-        <v>20505033</v>
+        <v>20257237</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1461,7 +1482,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="11">
-        <v>20506248</v>
+        <v>20258507</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1469,31 +1490,31 @@
         <v>139</v>
       </c>
       <c r="B140" s="11">
-        <v>20507700</v>
+        <v>20262128</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
-      <c r="B141" s="5">
-        <v>20508448</v>
+      <c r="B141" s="11">
+        <v>20265214</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
-      <c r="B142" s="5">
-        <v>20511013</v>
+      <c r="B142" s="11">
+        <v>20267644</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
-      <c r="B143" s="6">
-        <v>20511947</v>
+      <c r="B143" s="8">
+        <v>20268221</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1501,39 +1522,39 @@
         <v>143</v>
       </c>
       <c r="B144" s="11">
-        <v>20517742</v>
+        <v>20268734</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
-      <c r="B145" s="6">
-        <v>20517758</v>
+      <c r="B145" s="7">
+        <v>20269696</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
-      <c r="B146" s="6">
-        <v>20517759</v>
+      <c r="B146" s="11">
+        <v>20270735</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
-      <c r="B147" s="5">
-        <v>20517761</v>
+      <c r="B147" s="11">
+        <v>20271664</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
-      <c r="B148" s="5">
-        <v>20517762</v>
+      <c r="B148" s="7">
+        <v>20275815</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1541,7 +1562,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="11">
-        <v>20517766</v>
+        <v>20276403</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1549,39 +1570,39 @@
         <v>149</v>
       </c>
       <c r="B150" s="11">
-        <v>20519278</v>
+        <v>20279827</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
-      <c r="B151" s="5">
-        <v>20521707</v>
+      <c r="B151" s="8">
+        <v>20279927</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
-      <c r="B152" s="5">
-        <v>20522636</v>
+      <c r="B152" s="11">
+        <v>20280609</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
-      <c r="B153" s="11">
-        <v>20523757</v>
+      <c r="B153" s="7">
+        <v>20300690</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
-      <c r="B154" s="6">
-        <v>20523758</v>
+      <c r="B154" s="11">
+        <v>20300693</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1589,7 +1610,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="11">
-        <v>20523760</v>
+        <v>20300710</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1597,31 +1618,31 @@
         <v>155</v>
       </c>
       <c r="B156" s="11">
-        <v>20525627</v>
+        <v>20301899</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
-      <c r="B157" s="6">
-        <v>20533813</v>
+      <c r="B157" s="7">
+        <v>20302124</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
-      <c r="B158" s="6">
-        <v>20533814</v>
+      <c r="B158" s="11">
+        <v>20302126</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
-      <c r="B159" s="6">
-        <v>20534398</v>
+      <c r="B159" s="8">
+        <v>20303942</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1629,63 +1650,63 @@
         <v>159</v>
       </c>
       <c r="B160" s="11">
-        <v>20534783</v>
+        <v>20306055</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
-      <c r="B161" s="6">
-        <v>20534784</v>
+      <c r="B161" s="11">
+        <v>20306803</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
-      <c r="B162" s="5">
-        <v>20538340</v>
+      <c r="B162" s="7">
+        <v>20307703</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="11">
-        <v>20539814</v>
+      <c r="B163" s="8">
+        <v>20307715</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="6">
-        <v>20540110</v>
+      <c r="B164" s="7">
+        <v>20308417</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="5">
-        <v>20541264</v>
+      <c r="B165" s="11">
+        <v>20308436</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="11">
-        <v>20546877</v>
+      <c r="B166" s="7">
+        <v>20309531</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="5">
-        <v>20548745</v>
+      <c r="B167" s="11">
+        <v>20310436</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1693,15 +1714,15 @@
         <v>167</v>
       </c>
       <c r="B168" s="11">
-        <v>20549504</v>
+        <v>20310439</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>168</v>
       </c>
-      <c r="B169" s="6">
-        <v>20554341</v>
+      <c r="B169" s="11">
+        <v>20310441</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1709,63 +1730,63 @@
         <v>169</v>
       </c>
       <c r="B170" s="11">
-        <v>20554359</v>
+        <v>20311044</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>170</v>
       </c>
-      <c r="B171" s="5">
-        <v>20554381</v>
+      <c r="B171" s="11">
+        <v>20312897</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>171</v>
       </c>
-      <c r="B172" s="6">
-        <v>20554606</v>
+      <c r="B172" s="11">
+        <v>20313042</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>172</v>
       </c>
-      <c r="B173" s="5">
-        <v>20566563</v>
+      <c r="B173" s="11">
+        <v>20313046</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>173</v>
       </c>
-      <c r="B174" s="5">
-        <v>20603253</v>
+      <c r="B174" s="11">
+        <v>20314863</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>174</v>
       </c>
-      <c r="B175" s="11">
-        <v>20605114</v>
+      <c r="B175" s="7">
+        <v>20314900</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>175</v>
       </c>
-      <c r="B176" s="6">
-        <v>20606250</v>
+      <c r="B176" s="11">
+        <v>20315656</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>176</v>
       </c>
-      <c r="B177" s="5">
-        <v>20613439</v>
+      <c r="B177" s="11">
+        <v>20317482</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1773,47 +1794,47 @@
         <v>177</v>
       </c>
       <c r="B178" s="11">
-        <v>20607834</v>
+        <v>20319296</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>178</v>
       </c>
-      <c r="B179" s="6">
-        <v>20607837</v>
+      <c r="B179" s="11">
+        <v>20320251</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>179</v>
       </c>
-      <c r="B180" s="5">
-        <v>20614616</v>
+      <c r="B180" s="11">
+        <v>20321425</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>180</v>
       </c>
-      <c r="B181" s="5">
-        <v>20615093</v>
+      <c r="B181" s="11">
+        <v>20321842</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="5">
-        <v>20616368</v>
+      <c r="B182" s="7">
+        <v>20321847</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="5">
-        <v>20622268</v>
+      <c r="B183" s="8">
+        <v>20323505</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1821,23 +1842,23 @@
         <v>183</v>
       </c>
       <c r="B184" s="11">
-        <v>30103487</v>
+        <v>20324226</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="5">
-        <v>30105230</v>
+      <c r="B185" s="11">
+        <v>20324227</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="6">
-        <v>30105519</v>
+      <c r="B186" s="11">
+        <v>20325252</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1845,7 +1866,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="11">
-        <v>30107398</v>
+        <v>20326425</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1853,7 +1874,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="11">
-        <v>30109301</v>
+        <v>20326427</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1861,7 +1882,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="11">
-        <v>30109724</v>
+        <v>20326454</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1869,15 +1890,15 @@
         <v>189</v>
       </c>
       <c r="B190" s="11">
-        <v>30304286</v>
+        <v>20327586</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="5">
-        <v>30304604</v>
+      <c r="B191" s="11">
+        <v>20327603</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1885,111 +1906,111 @@
         <v>191</v>
       </c>
       <c r="B192" s="11">
-        <v>30312532</v>
+        <v>20327608</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="11">
-        <v>30401516</v>
+      <c r="B193" s="7">
+        <v>20328108</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="6">
-        <v>30401782</v>
+      <c r="B194" s="11">
+        <v>20328116</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="5">
-        <v>30402083</v>
+      <c r="B195" s="11">
+        <v>20328126</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="6">
-        <v>30402596</v>
+      <c r="B196" s="7">
+        <v>20328132</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="11">
-        <v>30405247</v>
+      <c r="B197" s="8">
+        <v>20328152</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="11">
-        <v>30405265</v>
+      <c r="B198" s="7">
+        <v>20328153</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="6">
-        <v>30407767</v>
+      <c r="B199" s="11">
+        <v>20328460</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="5">
-        <v>30409918</v>
+      <c r="B200" s="11">
+        <v>20328945</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="5">
-        <v>40103059</v>
+      <c r="B201" s="7">
+        <v>20328962</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" s="6">
-        <v>40103207</v>
+      <c r="B202" s="11">
+        <v>20328971</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="5">
-        <v>40310796</v>
+      <c r="B203" s="8">
+        <v>20328981</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" s="6">
-        <v>40314105</v>
+      <c r="B204" s="11">
+        <v>20329527</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" s="6">
-        <v>40402775</v>
+      <c r="B205" s="11">
+        <v>20329859</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1997,15 +2018,15 @@
         <v>205</v>
       </c>
       <c r="B206" s="11">
-        <v>40403566</v>
+        <v>20330038</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" s="6">
-        <v>40500181</v>
+      <c r="B207" s="11">
+        <v>20330118</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2013,7 +2034,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="11">
-        <v>40500380</v>
+        <v>20330119</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2021,7 +2042,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="11">
-        <v>40501064</v>
+        <v>20330307</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2029,7 +2050,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="11">
-        <v>40501682</v>
+        <v>20330334</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2037,7 +2058,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="11">
-        <v>40501858</v>
+        <v>20330454</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2045,7 +2066,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5">
-        <v>40601491</v>
+        <v>20331126</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2053,39 +2074,39 @@
         <v>212</v>
       </c>
       <c r="B213" s="11">
-        <v>50103727</v>
+        <v>20337648</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" s="6">
-        <v>50203317</v>
+      <c r="B214" s="5">
+        <v>20339029</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" s="5">
-        <v>50205626</v>
+      <c r="B215" s="6">
+        <v>20339040</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="6">
-        <v>50219959</v>
+      <c r="B216" s="11">
+        <v>20339066</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" s="6">
-        <v>50220438</v>
+      <c r="B217" s="11">
+        <v>20339165</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2093,23 +2114,23 @@
         <v>217</v>
       </c>
       <c r="B218" s="6">
-        <v>50220769</v>
+        <v>20340348</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" s="5">
-        <v>50301399</v>
+      <c r="B219" s="11">
+        <v>20341010</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" s="6">
-        <v>50304778</v>
+      <c r="B220" s="11">
+        <v>20341017</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2117,47 +2138,47 @@
         <v>220</v>
       </c>
       <c r="B221" s="11">
-        <v>50305267</v>
+        <v>20341206</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" s="6">
-        <v>50308344</v>
+      <c r="B222" s="11">
+        <v>20341390</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" s="5">
-        <v>60300189</v>
+      <c r="B223" s="11">
+        <v>20341442</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" s="5">
-        <v>60725432</v>
+      <c r="B224" s="11">
+        <v>20341574</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="6">
-        <v>60726515</v>
+      <c r="B225" s="11">
+        <v>20352230</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="6">
-        <v>69734356</v>
+      <c r="B226" s="11">
+        <v>20352397</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2165,15 +2186,15 @@
         <v>226</v>
       </c>
       <c r="B227" s="11">
-        <v>69756191</v>
+        <v>20360275</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="6">
-        <v>69767776</v>
+      <c r="B228" s="11">
+        <v>20360301</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2181,7 +2202,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5">
-        <v>69772328</v>
+        <v>20360363</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2189,15 +2210,15 @@
         <v>229</v>
       </c>
       <c r="B230" s="5">
-        <v>69773566</v>
+        <v>20360536</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>230</v>
       </c>
-      <c r="B231" s="6">
-        <v>69775283</v>
+      <c r="B231" s="5">
+        <v>20360896</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2205,15 +2226,15 @@
         <v>231</v>
       </c>
       <c r="B232" s="6">
-        <v>69827649</v>
+        <v>20361045</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>232</v>
       </c>
-      <c r="B233" s="5">
-        <v>69830643</v>
+      <c r="B233" s="11">
+        <v>20361510</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2221,23 +2242,23 @@
         <v>233</v>
       </c>
       <c r="B234" s="6">
-        <v>69849370</v>
+        <v>20362773</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>234</v>
       </c>
-      <c r="B235" s="11">
-        <v>69851465</v>
+      <c r="B235" s="6">
+        <v>20400432</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>235</v>
       </c>
-      <c r="B236" s="11">
-        <v>69852822</v>
+      <c r="B236" s="6">
+        <v>20400446</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2245,15 +2266,15 @@
         <v>236</v>
       </c>
       <c r="B237" s="11">
-        <v>69856657</v>
+        <v>20400449</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>237</v>
       </c>
-      <c r="B238" s="5">
-        <v>69862566</v>
+      <c r="B238" s="11">
+        <v>20401137</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2261,31 +2282,31 @@
         <v>238</v>
       </c>
       <c r="B239" s="6">
-        <v>69877402</v>
+        <v>20401176</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>239</v>
       </c>
-      <c r="B240" s="5">
-        <v>69880817</v>
+      <c r="B240" s="11">
+        <v>20401192</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>240</v>
       </c>
-      <c r="B241" s="11">
-        <v>69882371</v>
+      <c r="B241" s="5">
+        <v>20401194</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>241</v>
       </c>
-      <c r="B242" s="5">
-        <v>69897257</v>
+      <c r="B242" s="11">
+        <v>20401304</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2293,7 +2314,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="6">
-        <v>69913857</v>
+        <v>20401315</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2301,7 +2322,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="11">
-        <v>69930561</v>
+        <v>20402089</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2309,7 +2330,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="11">
-        <v>69934151</v>
+        <v>20402093</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2317,7 +2338,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="11">
-        <v>69948040</v>
+        <v>20402133</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2325,15 +2346,15 @@
         <v>246</v>
       </c>
       <c r="B247" s="6">
-        <v>69955278</v>
+        <v>20402787</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>247</v>
       </c>
-      <c r="B248" s="5">
-        <v>69967704</v>
+      <c r="B248" s="6">
+        <v>20402815</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2341,15 +2362,15 @@
         <v>248</v>
       </c>
       <c r="B249" s="11">
-        <v>20613916</v>
+        <v>20402840</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>249</v>
       </c>
-      <c r="B250" s="11">
-        <v>50100288</v>
+      <c r="B250" s="6">
+        <v>20403275</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2357,7 +2378,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="11">
-        <v>20622306</v>
+        <v>20403285</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2365,15 +2386,15 @@
         <v>251</v>
       </c>
       <c r="B252" s="11">
-        <v>20614509</v>
+        <v>20404181</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>252</v>
       </c>
-      <c r="B253" s="11">
-        <v>20607491</v>
+      <c r="B253" s="5">
+        <v>20404182</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2381,7 +2402,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="11">
-        <v>20401192</v>
+        <v>20407419</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2389,15 +2410,15 @@
         <v>254</v>
       </c>
       <c r="B255" s="11">
-        <v>20267644</v>
+        <v>20411873</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>255</v>
       </c>
-      <c r="B256" s="11">
-        <v>20200606</v>
+      <c r="B256" s="6">
+        <v>20500411</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2405,47 +2426,47 @@
         <v>256</v>
       </c>
       <c r="B257" s="11">
-        <v>20219145</v>
+        <v>20500423</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>257</v>
       </c>
-      <c r="B258" s="11">
-        <v>60728389</v>
+      <c r="B258" s="6">
+        <v>20500424</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>258</v>
       </c>
-      <c r="B259" s="11">
-        <v>20252398</v>
+      <c r="B259" s="6">
+        <v>20501715</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>259</v>
       </c>
-      <c r="B260" s="11">
-        <v>69759252</v>
+      <c r="B260" s="5">
+        <v>20501720</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>260</v>
       </c>
-      <c r="B261" s="11">
-        <v>20314863</v>
+      <c r="B261" s="6">
+        <v>20503434</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>261</v>
       </c>
-      <c r="B262" s="11">
-        <v>20319296</v>
+      <c r="B262" s="6">
+        <v>20504482</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2453,7 +2474,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="11">
-        <v>20341017</v>
+        <v>20505033</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2461,7 +2482,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="11">
-        <v>69947441</v>
+        <v>20506248</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2469,7 +2490,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="11">
-        <v>20339165</v>
+        <v>20506249</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2477,7 +2498,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="11">
-        <v>20310436</v>
+        <v>20507700</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2485,23 +2506,23 @@
         <v>266</v>
       </c>
       <c r="B267" s="11">
-        <v>20339066</v>
+        <v>20507704</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>267</v>
       </c>
-      <c r="B268" s="11">
-        <v>20525592</v>
+      <c r="B268" s="5">
+        <v>20508448</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>268</v>
       </c>
-      <c r="B269" s="11">
-        <v>20523754</v>
+      <c r="B269" s="5">
+        <v>20511013</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2509,15 +2530,15 @@
         <v>269</v>
       </c>
       <c r="B270" s="11">
-        <v>20549236</v>
+        <v>20511015</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>270</v>
       </c>
-      <c r="B271" s="11">
-        <v>20511015</v>
+      <c r="B271" s="6">
+        <v>20511947</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2525,7 +2546,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="11">
-        <v>20533643</v>
+        <v>20515438</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2533,39 +2554,39 @@
         <v>272</v>
       </c>
       <c r="B273" s="11">
-        <v>20554703</v>
+        <v>20517742</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>273</v>
       </c>
-      <c r="B274" s="11">
-        <v>20547845</v>
+      <c r="B274" s="6">
+        <v>20517758</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>274</v>
       </c>
-      <c r="B275" s="11">
-        <v>30108295</v>
+      <c r="B275" s="6">
+        <v>20517759</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>275</v>
       </c>
-      <c r="B276" s="11">
-        <v>30105521</v>
+      <c r="B276" s="5">
+        <v>20517761</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>276</v>
       </c>
-      <c r="B277" s="11">
-        <v>30304520</v>
+      <c r="B277" s="5">
+        <v>20517762</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2573,7 +2594,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="11">
-        <v>30304270</v>
+        <v>20517766</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2581,7 +2602,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="11">
-        <v>30400114</v>
+        <v>20519149</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2589,23 +2610,23 @@
         <v>279</v>
       </c>
       <c r="B280" s="11">
-        <v>10807613</v>
+        <v>20519278</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>280</v>
       </c>
-      <c r="B281" s="11">
-        <v>60101983</v>
+      <c r="B281" s="5">
+        <v>20521707</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>281</v>
       </c>
-      <c r="B282" s="11">
-        <v>69990904</v>
+      <c r="B282" s="5">
+        <v>20522636</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2613,7 +2634,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="11">
-        <v>10303507</v>
+        <v>20523754</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2621,15 +2642,15 @@
         <v>283</v>
       </c>
       <c r="B284" s="11">
-        <v>10603684</v>
+        <v>20523757</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>284</v>
       </c>
-      <c r="B285" s="11">
-        <v>10203547</v>
+      <c r="B285" s="6">
+        <v>20523758</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2637,7 +2658,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="11">
-        <v>10220602</v>
+        <v>20523760</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2645,7 +2666,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="11">
-        <v>10206514</v>
+        <v>20525592</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2653,7 +2674,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="11">
-        <v>10259305</v>
+        <v>20525627</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2661,7 +2682,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="11">
-        <v>10211061</v>
+        <v>20525629</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2669,7 +2690,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="11">
-        <v>30401713</v>
+        <v>20528658</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2677,7 +2698,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="11">
-        <v>50205416</v>
+        <v>20532182</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2685,23 +2706,23 @@
         <v>291</v>
       </c>
       <c r="B292" s="11">
-        <v>50302628</v>
+        <v>20533643</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
-      <c r="B293" s="11">
-        <v>10402106</v>
+      <c r="B293" s="6">
+        <v>20533813</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
-      <c r="B294" s="11">
-        <v>40604625</v>
+      <c r="B294" s="6">
+        <v>20533814</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2709,7 +2730,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="11">
-        <v>40601490</v>
+        <v>20533816</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2717,15 +2738,15 @@
         <v>295</v>
       </c>
       <c r="B296" s="11">
-        <v>10609726</v>
+        <v>20534176</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>296</v>
       </c>
-      <c r="B297" s="11">
-        <v>69759278</v>
+      <c r="B297" s="6">
+        <v>20534398</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2733,23 +2754,23 @@
         <v>297</v>
       </c>
       <c r="B298" s="11">
-        <v>10214027</v>
+        <v>20534783</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>298</v>
       </c>
-      <c r="B299" s="11">
-        <v>10261695</v>
+      <c r="B299" s="6">
+        <v>20534784</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>299</v>
       </c>
-      <c r="B300" s="11">
-        <v>69899478</v>
+      <c r="B300" s="5">
+        <v>20538340</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2757,23 +2778,23 @@
         <v>300</v>
       </c>
       <c r="B301" s="11">
-        <v>10700642</v>
+        <v>20539814</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
-      <c r="B302" s="11">
-        <v>20402089</v>
+      <c r="B302" s="6">
+        <v>20540110</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>302</v>
       </c>
-      <c r="B303" s="11">
-        <v>20404181</v>
+      <c r="B303" s="5">
+        <v>20541264</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2781,7 +2802,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="11">
-        <v>20265214</v>
+        <v>20542509</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2789,7 +2810,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="11">
-        <v>20244755</v>
+        <v>20546877</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2797,15 +2818,15 @@
         <v>305</v>
       </c>
       <c r="B306" s="11">
-        <v>20247201</v>
+        <v>20547845</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>306</v>
       </c>
-      <c r="B307" s="11">
-        <v>20232491</v>
+      <c r="B307" s="5">
+        <v>20548745</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2813,7 +2834,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="11">
-        <v>20231416</v>
+        <v>20548802</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2821,7 +2842,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="11">
-        <v>20200607</v>
+        <v>20549029</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2829,7 +2850,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="11">
-        <v>69727436</v>
+        <v>20549236</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2837,7 +2858,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="11">
-        <v>20252208</v>
+        <v>20549504</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2845,15 +2866,15 @@
         <v>311</v>
       </c>
       <c r="B312" s="11">
-        <v>20244688</v>
+        <v>20553265</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
-      <c r="B313" s="11">
-        <v>20246375</v>
+      <c r="B313" s="6">
+        <v>20554341</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2861,23 +2882,23 @@
         <v>313</v>
       </c>
       <c r="B314" s="11">
-        <v>20209203</v>
+        <v>20554359</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
-      <c r="B315" s="11">
-        <v>20209202</v>
+      <c r="B315" s="5">
+        <v>20554381</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
-      <c r="B316" s="11">
-        <v>20258507</v>
+      <c r="B316" s="6">
+        <v>20554606</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2885,15 +2906,15 @@
         <v>316</v>
       </c>
       <c r="B317" s="11">
-        <v>20237434</v>
+        <v>20554703</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
-      <c r="B318" s="11">
-        <v>20212918</v>
+      <c r="B318" s="5">
+        <v>20566563</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2901,7 +2922,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="11">
-        <v>20223114</v>
+        <v>20568697</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2909,7 +2930,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="11">
-        <v>20223131</v>
+        <v>20570902</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2917,7 +2938,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="11">
-        <v>20326454</v>
+        <v>20574699</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2925,7 +2946,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="11">
-        <v>20361510</v>
+        <v>20584049</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2933,15 +2954,15 @@
         <v>322</v>
       </c>
       <c r="B323" s="11">
-        <v>20324226</v>
+        <v>20600560</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>323</v>
       </c>
-      <c r="B324" s="11">
-        <v>20329859</v>
+      <c r="B324" s="5">
+        <v>20603253</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2949,7 +2970,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="11">
-        <v>20507704</v>
+        <v>20603309</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2957,15 +2978,15 @@
         <v>325</v>
       </c>
       <c r="B326" s="11">
-        <v>20519149</v>
+        <v>20605114</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>326</v>
       </c>
-      <c r="B327" s="11">
-        <v>20533816</v>
+      <c r="B327" s="6">
+        <v>20606250</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2973,7 +2994,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="11">
-        <v>30401714</v>
+        <v>20606899</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2981,7 +3002,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="11">
-        <v>10900451</v>
+        <v>20607491</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2989,15 +3010,15 @@
         <v>329</v>
       </c>
       <c r="B330" s="11">
-        <v>10807614</v>
+        <v>20607834</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>330</v>
       </c>
-      <c r="B331" s="11">
-        <v>60105436</v>
+      <c r="B331" s="6">
+        <v>20607837</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3005,15 +3026,15 @@
         <v>331</v>
       </c>
       <c r="B332" s="11">
-        <v>50204505</v>
+        <v>20607873</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>332</v>
       </c>
-      <c r="B333" s="11">
-        <v>50302299</v>
+      <c r="B333" s="5">
+        <v>20613439</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3021,7 +3042,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="11">
-        <v>60400380</v>
+        <v>20613916</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3029,39 +3050,39 @@
         <v>334</v>
       </c>
       <c r="B335" s="11">
-        <v>10400262</v>
+        <v>20614509</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>335</v>
       </c>
-      <c r="B336" s="11">
-        <v>40311963</v>
+      <c r="B336" s="5">
+        <v>20614616</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>336</v>
       </c>
-      <c r="B337" s="11">
-        <v>40311967</v>
+      <c r="B337" s="5">
+        <v>20615093</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>337</v>
       </c>
-      <c r="B338" s="11">
-        <v>40203629</v>
+      <c r="B338" s="5">
+        <v>20616368</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
-      <c r="B339" s="11">
-        <v>10259915</v>
+      <c r="B339" s="5">
+        <v>20622268</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3069,7 +3090,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="11">
-        <v>20341442</v>
+        <v>20622306</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3077,7 +3098,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="11">
-        <v>69756197</v>
+        <v>30100364</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3085,7 +3106,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="11">
-        <v>20330038</v>
+        <v>30102514</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3093,23 +3114,23 @@
         <v>342</v>
       </c>
       <c r="B343" s="11">
-        <v>20532182</v>
+        <v>30103487</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>343</v>
       </c>
-      <c r="B344" s="11">
-        <v>20534176</v>
+      <c r="B344" s="5">
+        <v>30105230</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>344</v>
       </c>
-      <c r="B345" s="11">
-        <v>20528658</v>
+      <c r="B345" s="6">
+        <v>30105519</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3117,7 +3138,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="11">
-        <v>20525629</v>
+        <v>30105521</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3125,7 +3146,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="11">
-        <v>20584049</v>
+        <v>30107328</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3133,7 +3154,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="11">
-        <v>30107328</v>
+        <v>30107398</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3141,15 +3162,928 @@
         <v>348</v>
       </c>
       <c r="B349" s="11">
-        <v>10814657</v>
+        <v>30108295</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A350" s="2">
+        <v>349</v>
+      </c>
+      <c r="B350" s="11">
+        <v>30109301</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>350</v>
+      </c>
+      <c r="B351" s="11">
+        <v>30109724</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>351</v>
+      </c>
+      <c r="B352" s="11">
+        <v>30203491</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>352</v>
+      </c>
+      <c r="B353" s="11">
+        <v>30304268</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
+        <v>353</v>
+      </c>
+      <c r="B354" s="11">
+        <v>30304270</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>354</v>
+      </c>
+      <c r="B355" s="11">
+        <v>30304286</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A356" s="2">
+        <v>355</v>
+      </c>
+      <c r="B356" s="11">
+        <v>30304520</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5">
+        <v>30304604</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A358" s="2">
+        <v>357</v>
+      </c>
+      <c r="B358" s="11">
+        <v>30312532</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A359" s="2">
+        <v>358</v>
+      </c>
+      <c r="B359" s="11">
+        <v>30400114</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A360" s="2">
+        <v>359</v>
+      </c>
+      <c r="B360" s="11">
+        <v>30400230</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A361" s="2">
+        <v>360</v>
+      </c>
+      <c r="B361" s="11">
+        <v>30401508</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A362" s="2">
+        <v>361</v>
+      </c>
+      <c r="B362" s="11">
+        <v>30401516</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A363" s="2">
+        <v>362</v>
+      </c>
+      <c r="B363" s="11">
+        <v>30401713</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A364" s="2">
+        <v>363</v>
+      </c>
+      <c r="B364" s="11">
+        <v>30401714</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A365" s="2">
+        <v>364</v>
+      </c>
+      <c r="B365" s="6">
+        <v>30401782</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A366" s="2">
+        <v>365</v>
+      </c>
+      <c r="B366" s="5">
+        <v>30402083</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A367" s="2">
+        <v>366</v>
+      </c>
+      <c r="B367" s="6">
+        <v>30402596</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A368" s="2">
+        <v>367</v>
+      </c>
+      <c r="B368" s="11">
+        <v>30405247</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A369" s="2">
+        <v>368</v>
+      </c>
+      <c r="B369" s="11">
+        <v>30405265</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A370" s="2">
+        <v>369</v>
+      </c>
+      <c r="B370" s="6">
+        <v>30407767</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A371" s="2">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5">
+        <v>30409918</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A372" s="2">
+        <v>371</v>
+      </c>
+      <c r="B372" s="5">
+        <v>40103059</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A373" s="2">
+        <v>372</v>
+      </c>
+      <c r="B373" s="6">
+        <v>40103207</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A374" s="2">
+        <v>373</v>
+      </c>
+      <c r="B374" s="11">
+        <v>40203629</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A375" s="2">
+        <v>374</v>
+      </c>
+      <c r="B375" s="11">
+        <v>40300604</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A376" s="2">
+        <v>375</v>
+      </c>
+      <c r="B376" s="11">
+        <v>40307389</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A377" s="2">
+        <v>376</v>
+      </c>
+      <c r="B377" s="11">
+        <v>40307845</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A378" s="2">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5">
+        <v>40310796</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A379" s="2">
+        <v>378</v>
+      </c>
+      <c r="B379" s="11">
+        <v>40311963</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A380" s="2">
+        <v>379</v>
+      </c>
+      <c r="B380" s="11">
+        <v>40311967</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A381" s="2">
+        <v>380</v>
+      </c>
+      <c r="B381" s="11">
+        <v>40311969</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A382" s="2">
+        <v>381</v>
+      </c>
+      <c r="B382" s="6">
+        <v>40314105</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A383" s="2">
+        <v>382</v>
+      </c>
+      <c r="B383" s="6">
+        <v>40402775</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A384" s="2">
+        <v>383</v>
+      </c>
+      <c r="B384" s="11">
+        <v>40403566</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A385" s="2">
+        <v>384</v>
+      </c>
+      <c r="B385" s="6">
+        <v>40500181</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A386" s="2">
+        <v>385</v>
+      </c>
+      <c r="B386" s="11">
+        <v>40500380</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A387" s="2">
+        <v>386</v>
+      </c>
+      <c r="B387" s="11">
+        <v>40501064</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A388" s="2">
+        <v>387</v>
+      </c>
+      <c r="B388" s="11">
+        <v>40501682</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A389" s="2">
+        <v>388</v>
+      </c>
+      <c r="B389" s="11">
+        <v>40501858</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A390" s="2">
+        <v>389</v>
+      </c>
+      <c r="B390" s="11">
+        <v>40601490</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A391" s="2">
+        <v>390</v>
+      </c>
+      <c r="B391" s="5">
+        <v>40601491</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A392" s="2">
+        <v>391</v>
+      </c>
+      <c r="B392" s="11">
+        <v>40604625</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A393" s="2">
+        <v>392</v>
+      </c>
+      <c r="B393" s="11">
+        <v>50100288</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A394" s="2">
+        <v>393</v>
+      </c>
+      <c r="B394" s="11">
+        <v>50100289</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A395" s="2">
+        <v>394</v>
+      </c>
+      <c r="B395" s="11">
+        <v>50103727</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A396" s="2">
+        <v>395</v>
+      </c>
+      <c r="B396" s="11">
+        <v>50105503</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A397" s="2">
+        <v>396</v>
+      </c>
+      <c r="B397" s="6">
+        <v>50203317</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A398" s="2">
+        <v>397</v>
+      </c>
+      <c r="B398" s="11">
+        <v>50204465</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A399" s="2">
+        <v>398</v>
+      </c>
+      <c r="B399" s="11">
+        <v>50204505</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A400" s="2">
+        <v>399</v>
+      </c>
+      <c r="B400" s="11">
+        <v>50205416</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A401" s="2">
+        <v>400</v>
+      </c>
+      <c r="B401" s="11">
+        <v>50205616</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A402" s="2">
+        <v>401</v>
+      </c>
+      <c r="B402" s="5">
+        <v>50205626</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A403" s="2">
+        <v>402</v>
+      </c>
+      <c r="B403" s="11">
+        <v>50219548</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A404" s="2">
+        <v>403</v>
+      </c>
+      <c r="B404" s="6">
+        <v>50219959</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A405" s="2">
+        <v>404</v>
+      </c>
+      <c r="B405" s="6">
+        <v>50220438</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A406" s="2">
+        <v>405</v>
+      </c>
+      <c r="B406" s="6">
+        <v>50220769</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A407" s="2">
+        <v>406</v>
+      </c>
+      <c r="B407" s="5">
+        <v>50301399</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A408" s="2">
+        <v>407</v>
+      </c>
+      <c r="B408" s="11">
+        <v>50302299</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A409" s="2">
+        <v>408</v>
+      </c>
+      <c r="B409" s="11">
+        <v>50302628</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A410" s="2">
+        <v>409</v>
+      </c>
+      <c r="B410" s="6">
+        <v>50304778</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A411" s="2">
+        <v>410</v>
+      </c>
+      <c r="B411" s="11">
+        <v>50304991</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A412" s="2">
+        <v>411</v>
+      </c>
+      <c r="B412" s="11">
+        <v>50304992</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A413" s="2">
+        <v>412</v>
+      </c>
+      <c r="B413" s="11">
+        <v>50305267</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A414" s="2">
+        <v>413</v>
+      </c>
+      <c r="B414" s="6">
+        <v>50308344</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A415" s="2">
+        <v>414</v>
+      </c>
+      <c r="B415" s="11">
+        <v>60101983</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A416" s="2">
+        <v>415</v>
+      </c>
+      <c r="B416" s="11">
+        <v>60101987</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A417" s="2">
+        <v>416</v>
+      </c>
+      <c r="B417" s="11">
+        <v>60102779</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A418" s="2">
+        <v>417</v>
+      </c>
+      <c r="B418" s="11">
+        <v>60105436</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A419" s="2">
+        <v>418</v>
+      </c>
+      <c r="B419" s="11">
+        <v>60200779</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A420" s="2">
+        <v>419</v>
+      </c>
+      <c r="B420" s="5">
+        <v>60300189</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A421" s="2">
+        <v>420</v>
+      </c>
+      <c r="B421" s="11">
+        <v>60400380</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A422" s="2">
+        <v>421</v>
+      </c>
+      <c r="B422" s="5">
+        <v>60725432</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A423" s="2">
+        <v>422</v>
+      </c>
+      <c r="B423" s="6">
+        <v>60726515</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A424" s="2">
+        <v>423</v>
+      </c>
+      <c r="B424" s="11">
+        <v>60728389</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A425" s="2">
+        <v>424</v>
+      </c>
+      <c r="B425" s="11">
+        <v>60729364</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A426" s="2">
+        <v>425</v>
+      </c>
+      <c r="B426" s="11">
+        <v>69727436</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A427" s="2">
+        <v>426</v>
+      </c>
+      <c r="B427" s="6">
+        <v>69734356</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A428" s="2">
+        <v>427</v>
+      </c>
+      <c r="B428" s="11">
+        <v>69752443</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A429" s="2">
+        <v>428</v>
+      </c>
+      <c r="B429" s="11">
+        <v>69754002</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A430" s="2">
+        <v>429</v>
+      </c>
+      <c r="B430" s="11">
+        <v>69756191</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A431" s="2">
+        <v>430</v>
+      </c>
+      <c r="B431" s="11">
+        <v>69756197</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A432" s="2">
+        <v>431</v>
+      </c>
+      <c r="B432" s="11">
+        <v>69758143</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A433" s="2">
+        <v>432</v>
+      </c>
+      <c r="B433" s="11">
+        <v>69759252</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A434" s="2">
+        <v>433</v>
+      </c>
+      <c r="B434" s="11">
+        <v>69759278</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A435" s="2">
+        <v>434</v>
+      </c>
+      <c r="B435" s="11">
+        <v>69761931</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A436" s="2">
+        <v>435</v>
+      </c>
+      <c r="B436" s="6">
+        <v>69767776</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A437" s="2">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5">
+        <v>69772328</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A438" s="2">
+        <v>437</v>
+      </c>
+      <c r="B438" s="5">
+        <v>69773566</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A439" s="2">
+        <v>438</v>
+      </c>
+      <c r="B439" s="6">
+        <v>69775283</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A440" s="2">
+        <v>439</v>
+      </c>
+      <c r="B440" s="6">
+        <v>69827649</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A441" s="2">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5">
+        <v>69830643</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A442" s="2">
+        <v>441</v>
+      </c>
+      <c r="B442" s="6">
+        <v>69849370</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A443" s="2">
+        <v>442</v>
+      </c>
+      <c r="B443" s="11">
+        <v>69851465</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A444" s="2">
+        <v>443</v>
+      </c>
+      <c r="B444" s="11">
+        <v>69852822</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A445" s="2">
+        <v>444</v>
+      </c>
+      <c r="B445" s="11">
+        <v>69856657</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A446" s="2">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5">
+        <v>69862566</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A447" s="2">
+        <v>446</v>
+      </c>
+      <c r="B447" s="6">
+        <v>69877402</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A448" s="2">
+        <v>447</v>
+      </c>
+      <c r="B448" s="11">
+        <v>69880742</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A449" s="2">
+        <v>448</v>
+      </c>
+      <c r="B449" s="5">
+        <v>69880817</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A450" s="2">
+        <v>449</v>
+      </c>
+      <c r="B450" s="11">
+        <v>69882371</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A451" s="2">
+        <v>450</v>
+      </c>
+      <c r="B451" s="11">
+        <v>69888491</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A452" s="2">
+        <v>451</v>
+      </c>
+      <c r="B452" s="5">
+        <v>69897257</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A453" s="2">
+        <v>452</v>
+      </c>
+      <c r="B453" s="11">
+        <v>69899478</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A454" s="2">
+        <v>453</v>
+      </c>
+      <c r="B454" s="6">
+        <v>69913857</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A455" s="2">
+        <v>454</v>
+      </c>
+      <c r="B455" s="11">
+        <v>69930561</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A456" s="2">
+        <v>455</v>
+      </c>
+      <c r="B456" s="11">
+        <v>69934151</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A457" s="2">
+        <v>456</v>
+      </c>
+      <c r="B457" s="11">
+        <v>69946696</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A458" s="2">
+        <v>457</v>
+      </c>
+      <c r="B458" s="11">
+        <v>69947441</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A459" s="2">
+        <v>458</v>
+      </c>
+      <c r="B459" s="11">
+        <v>69948040</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A460" s="2">
+        <v>459</v>
+      </c>
+      <c r="B460" s="6">
+        <v>69955278</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A461" s="2">
+        <v>460</v>
+      </c>
+      <c r="B461" s="5">
+        <v>69967704</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A462" s="2">
+        <v>461</v>
+      </c>
+      <c r="B462" s="11">
+        <v>69968899</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A463" s="2">
+        <v>462</v>
+      </c>
+      <c r="B463" s="11">
+        <v>69990904</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B248">
-    <sortCondition ref="B2:B248"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B463">
+    <sortCondition ref="B2:B463"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/template_sekolah.xlsx
+++ b/public/template_sekolah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42DEBC8-246F-4561-9308-0C3116277C80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A146E47-F102-4272-A538-5A3CB86B0A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,17 +118,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -360,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B0C8D-E1AC-452B-9B63-7AAC23FA97FE}">
-  <dimension ref="A1:B463"/>
+  <dimension ref="A1:B464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="C434" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -386,7 +376,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>10102277</v>
+        <v>10105338</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -394,7 +384,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="10">
-        <v>10102278</v>
+        <v>10102277</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -402,7 +392,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="10">
-        <v>10105338</v>
+        <v>10102278</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -410,7 +400,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10">
-        <v>10203547</v>
+        <v>50100288</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -418,7 +408,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10">
-        <v>10204073</v>
+        <v>50100289</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -426,7 +416,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="10">
-        <v>10205190</v>
+        <v>69899478</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -434,7 +424,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="10">
-        <v>10205204</v>
+        <v>50105503</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -442,7 +432,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10">
-        <v>10206514</v>
+        <v>50103727</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -450,7 +440,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3">
-        <v>10210766</v>
+        <v>20607837</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -458,7 +448,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10">
-        <v>10211061</v>
+        <v>20607873</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -466,7 +456,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10">
-        <v>10211075</v>
+        <v>60729364</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -474,7 +464,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10">
-        <v>10211092</v>
+        <v>20600560</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -482,7 +472,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10">
-        <v>10211096</v>
+        <v>20622306</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -490,7 +480,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10">
-        <v>10211227</v>
+        <v>20614616</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -498,7 +488,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>10211592</v>
+        <v>20603309</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -506,7 +496,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="10">
-        <v>10212136</v>
+        <v>69990904</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -514,7 +504,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="10">
-        <v>10214027</v>
+        <v>20615093</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -522,7 +512,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
-        <v>10214028</v>
+        <v>20603253</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -530,7 +520,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="10">
-        <v>10220307</v>
+        <v>20622268</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -538,7 +528,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="10">
-        <v>10220602</v>
+        <v>20607491</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -546,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="10">
-        <v>10259305</v>
+        <v>20606898</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -554,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="10">
-        <v>10259665</v>
+        <v>20616368</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -562,7 +552,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="10">
-        <v>10259915</v>
+        <v>20614509</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -570,7 +560,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="10">
-        <v>10260807</v>
+        <v>20606250</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -578,7 +568,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="10">
-        <v>10260919</v>
+        <v>20605114</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -586,7 +576,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="10">
-        <v>10261412</v>
+        <v>20607834</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -594,7 +584,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="10">
-        <v>10261695</v>
+        <v>10703236</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -602,7 +592,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="10">
-        <v>10300825</v>
+        <v>10700642</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -610,7 +600,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="10">
-        <v>10303507</v>
+        <v>69830643</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -618,7 +608,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4">
-        <v>10303913</v>
+        <v>10700287</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -626,7 +616,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3">
-        <v>10304893</v>
+        <v>10703107</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -634,7 +624,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3">
-        <v>10308093</v>
+        <v>20402787</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -642,7 +632,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4">
-        <v>10310877</v>
+        <v>20402815</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -650,7 +640,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="10">
-        <v>10400262</v>
+        <v>20400432</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -658,7 +648,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="10">
-        <v>10402106</v>
+        <v>20400446</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -666,7 +656,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="10">
-        <v>10403923</v>
+        <v>20401176</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -674,7 +664,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="3">
-        <v>10404309</v>
+        <v>20403275</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -682,7 +672,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3">
-        <v>10494319</v>
+        <v>20401315</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -690,7 +680,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="10">
-        <v>10494574</v>
+        <v>20404182</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -698,7 +688,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3">
-        <v>10494620</v>
+        <v>20401194</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -706,7 +696,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="10">
-        <v>10495604</v>
+        <v>20402133</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -714,7 +704,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="10">
-        <v>10503769</v>
+        <v>20400449</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -722,7 +712,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3">
-        <v>10601343</v>
+        <v>20407419</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -730,7 +720,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="10">
-        <v>10603684</v>
+        <v>20402840</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -738,7 +728,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3">
-        <v>10604624</v>
+        <v>20401192</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -746,7 +736,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="10">
-        <v>10609726</v>
+        <v>20402093</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -754,7 +744,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3">
-        <v>10646355</v>
+        <v>20401304</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -762,7 +752,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3">
-        <v>10700287</v>
+        <v>20402089</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -770,7 +760,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="10">
-        <v>10700642</v>
+        <v>20411873</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -778,7 +768,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="10">
-        <v>10703107</v>
+        <v>20401137</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -786,7 +776,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="10">
-        <v>10703236</v>
+        <v>20403285</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -794,7 +784,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="10">
-        <v>10802055</v>
+        <v>20404181</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -802,7 +792,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3">
-        <v>10804184</v>
+        <v>20101501</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -810,7 +800,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4">
-        <v>10805046</v>
+        <v>20101648</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -818,7 +808,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="10">
-        <v>10807229</v>
+        <v>20103659</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -826,7 +816,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="10">
-        <v>10807613</v>
+        <v>20112443</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -834,7 +824,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="10">
-        <v>10807614</v>
+        <v>20100166</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -842,7 +832,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="10">
-        <v>10812426</v>
+        <v>20100294</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -850,7 +840,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="10">
-        <v>10814657</v>
+        <v>40500181</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -858,7 +848,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10">
-        <v>10814962</v>
+        <v>40501858</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -866,7 +856,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10">
-        <v>10900451</v>
+        <v>40501682</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -874,7 +864,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="4">
-        <v>11000382</v>
+        <v>40500380</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -882,7 +872,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10">
-        <v>11000439</v>
+        <v>40501064</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -890,7 +880,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4">
-        <v>11003119</v>
+        <v>10503769</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -898,7 +888,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3">
-        <v>20100166</v>
+        <v>20267644</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -906,7 +896,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="4">
-        <v>20100294</v>
+        <v>69955278</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -914,7 +904,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7">
-        <v>20101501</v>
+        <v>20214822</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -922,7 +912,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="8">
-        <v>20101648</v>
+        <v>20209201</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -930,7 +920,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="12">
-        <v>20103659</v>
+        <v>20252207</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -938,7 +928,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="8">
-        <v>20112443</v>
+        <v>20209208</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -946,7 +936,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="11">
-        <v>20200606</v>
+        <v>20206225</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -954,7 +944,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="11">
-        <v>20200607</v>
+        <v>20212921</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -962,7 +952,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="11">
-        <v>20206225</v>
+        <v>20229659</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -970,7 +960,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="11">
-        <v>20208396</v>
+        <v>20217803</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -978,7 +968,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7">
-        <v>20209201</v>
+        <v>20217802</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -986,7 +976,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="11">
-        <v>20209202</v>
+        <v>69734356</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -994,7 +984,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="11">
-        <v>20209203</v>
+        <v>20235643</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1002,7 +992,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7">
-        <v>20209208</v>
+        <v>20208396</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1010,7 +1000,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="11">
-        <v>20212908</v>
+        <v>50219959</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1018,7 +1008,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="12">
-        <v>20212911</v>
+        <v>20244687</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1026,7 +1016,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="11">
-        <v>20212918</v>
+        <v>20252398</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1034,7 +1024,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7">
-        <v>20212921</v>
+        <v>20227940</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1042,7 +1032,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="8">
-        <v>20214797</v>
+        <v>20252030</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1050,7 +1040,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7">
-        <v>20214822</v>
+        <v>20228510</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1058,7 +1048,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="8">
-        <v>20214984</v>
+        <v>20279927</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1066,7 +1056,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7">
-        <v>20215998</v>
+        <v>69897257</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1074,7 +1064,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="12">
-        <v>20216001</v>
+        <v>69967704</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1082,7 +1072,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="8">
-        <v>20216003</v>
+        <v>20214797</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1090,7 +1080,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7">
-        <v>20216007</v>
+        <v>20214984</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1098,7 +1088,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="12">
-        <v>20217038</v>
+        <v>20244688</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1106,7 +1096,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="12">
-        <v>20217366</v>
+        <v>20216007</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1114,7 +1104,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="8">
-        <v>20217367</v>
+        <v>20219144</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1122,7 +1112,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="11">
-        <v>20217795</v>
+        <v>20247198</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1130,7 +1120,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="11">
-        <v>20217796</v>
+        <v>20216003</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1138,7 +1128,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7">
-        <v>20217802</v>
+        <v>20276403</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1146,7 +1136,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7">
-        <v>20217803</v>
+        <v>20237410</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1154,7 +1144,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7">
-        <v>20219144</v>
+        <v>69946696</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1162,7 +1152,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="11">
-        <v>20219145</v>
+        <v>20217796</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1170,7 +1160,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="8">
-        <v>20221566</v>
+        <v>20217795</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1178,7 +1168,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="12">
-        <v>20222170</v>
+        <v>20212918</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1186,7 +1176,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="11">
-        <v>20223110</v>
+        <v>20212908</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1194,7 +1184,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="11">
-        <v>20223114</v>
+        <v>20217367</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1202,7 +1192,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="11">
-        <v>20223131</v>
+        <v>20251887</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1210,7 +1200,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7">
-        <v>20224136</v>
+        <v>60728389</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1218,7 +1208,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="11">
-        <v>20224614</v>
+        <v>20231741</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1226,7 +1216,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="8">
-        <v>20227940</v>
+        <v>20257237</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1234,7 +1224,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="8">
-        <v>20228510</v>
+        <v>20268221</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1242,7 +1232,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="8">
-        <v>20228539</v>
+        <v>69877402</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1250,7 +1240,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7">
-        <v>20229659</v>
+        <v>60726515</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1258,7 +1248,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="11">
-        <v>20231416</v>
+        <v>20215998</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1266,7 +1256,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7">
-        <v>20231741</v>
+        <v>20232491</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1274,7 +1264,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="12">
-        <v>20232480</v>
+        <v>20200606</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1282,7 +1272,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="11">
-        <v>20232491</v>
+        <v>20231416</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1290,7 +1280,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="8">
-        <v>20235643</v>
+        <v>20247201</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1298,7 +1288,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="12">
-        <v>20237408</v>
+        <v>20209203</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1306,7 +1296,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="8">
-        <v>20237410</v>
+        <v>20265214</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1314,7 +1304,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="11">
-        <v>20237434</v>
+        <v>20209202</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1322,7 +1312,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="12">
-        <v>20237465</v>
+        <v>69759252</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1330,7 +1320,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="11">
-        <v>20238571</v>
+        <v>20275815</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1338,7 +1328,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="12">
-        <v>20244687</v>
+        <v>69727436</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1346,7 +1336,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="11">
-        <v>20244688</v>
+        <v>20252208</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1354,7 +1344,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="11">
-        <v>20244755</v>
+        <v>20246375</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1362,7 +1352,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="12">
-        <v>20246369</v>
+        <v>20237434</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1370,7 +1360,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="11">
-        <v>20246375</v>
+        <v>20258507</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1378,7 +1368,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="12">
-        <v>20247197</v>
+        <v>20244755</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1386,7 +1376,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="8">
-        <v>20247198</v>
+        <v>20223114</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1394,7 +1384,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="11">
-        <v>20247201</v>
+        <v>20253861</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1402,7 +1392,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="12">
-        <v>20251830</v>
+        <v>69758143</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1410,7 +1400,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="11">
-        <v>20251887</v>
+        <v>20223110</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1418,7 +1408,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="7">
-        <v>20252030</v>
+        <v>20269696</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1426,7 +1416,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="11">
-        <v>20252207</v>
+        <v>20219145</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1434,7 +1424,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="11">
-        <v>20252208</v>
+        <v>69752443</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1442,7 +1432,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="11">
-        <v>20252398</v>
+        <v>20224136</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1450,7 +1440,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="12">
-        <v>20253319</v>
+        <v>20224614</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1458,7 +1448,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="12">
-        <v>20253779</v>
+        <v>20221566</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1466,7 +1456,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="7">
-        <v>20253861</v>
+        <v>20223131</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1474,7 +1464,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="11">
-        <v>20257237</v>
+        <v>20238571</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1482,7 +1472,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="11">
-        <v>20258507</v>
+        <v>69882371</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1490,7 +1480,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="11">
-        <v>20262128</v>
+        <v>20228539</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1498,7 +1488,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="11">
-        <v>20265214</v>
+        <v>20212911</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1506,7 +1496,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="11">
-        <v>20267644</v>
+        <v>20216001</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1514,7 +1504,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="8">
-        <v>20268221</v>
+        <v>20237465</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1522,7 +1512,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="11">
-        <v>20268734</v>
+        <v>20270735</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1530,7 +1520,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="7">
-        <v>20269696</v>
+        <v>20237408</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1538,7 +1528,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="11">
-        <v>20270735</v>
+        <v>20253319</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1554,7 +1544,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="7">
-        <v>20275815</v>
+        <v>20280609</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1562,7 +1552,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="11">
-        <v>20276403</v>
+        <v>20232480</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1570,7 +1560,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="11">
-        <v>20279827</v>
+        <v>69856657</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1578,7 +1568,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="8">
-        <v>20279927</v>
+        <v>69852822</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1586,7 +1576,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="11">
-        <v>20280609</v>
+        <v>20262128</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1594,7 +1584,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7">
-        <v>20300690</v>
+        <v>69934151</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1602,7 +1592,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="11">
-        <v>20300693</v>
+        <v>20217366</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1610,7 +1600,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="11">
-        <v>20300710</v>
+        <v>20247197</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1618,7 +1608,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="11">
-        <v>20301899</v>
+        <v>69948040</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1626,7 +1616,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="7">
-        <v>20302124</v>
+        <v>20222170</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1634,7 +1624,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="11">
-        <v>20302126</v>
+        <v>20279827</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1642,7 +1632,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="8">
-        <v>20303942</v>
+        <v>20268734</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1650,7 +1640,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="11">
-        <v>20306055</v>
+        <v>20251830</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1658,7 +1648,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="11">
-        <v>20306803</v>
+        <v>20253779</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1666,7 +1656,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="7">
-        <v>20307703</v>
+        <v>20246369</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1674,7 +1664,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="8">
-        <v>20307715</v>
+        <v>20217038</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1682,7 +1672,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="7">
-        <v>20308417</v>
+        <v>20361045</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1690,7 +1680,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="11">
-        <v>20308436</v>
+        <v>20310439</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1698,7 +1688,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7">
-        <v>20309531</v>
+        <v>20321847</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1706,7 +1696,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="11">
-        <v>20310436</v>
+        <v>20309531</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1714,7 +1704,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="11">
-        <v>20310439</v>
+        <v>20300690</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1722,7 +1712,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="11">
-        <v>20310441</v>
+        <v>20307703</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1730,7 +1720,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="11">
-        <v>20311044</v>
+        <v>20302124</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1738,7 +1728,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="11">
-        <v>20312897</v>
+        <v>20308417</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1746,7 +1736,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="11">
-        <v>20313042</v>
+        <v>20307715</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1754,7 +1744,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="11">
-        <v>20313046</v>
+        <v>20328153</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1762,7 +1752,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="11">
-        <v>20314863</v>
+        <v>20339040</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1770,7 +1760,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="7">
-        <v>20314900</v>
+        <v>20339165</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1778,7 +1768,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="11">
-        <v>20315656</v>
+        <v>20302126</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1786,7 +1776,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="11">
-        <v>20317482</v>
+        <v>20303942</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1794,7 +1784,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="11">
-        <v>20319296</v>
+        <v>20339029</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1802,7 +1792,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="11">
-        <v>20320251</v>
+        <v>20328962</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1810,7 +1800,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="11">
-        <v>20321425</v>
+        <v>20360363</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1818,7 +1808,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="11">
-        <v>20321842</v>
+        <v>20328152</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1826,7 +1816,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="7">
-        <v>20321847</v>
+        <v>60725432</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1834,7 +1824,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="8">
-        <v>20323505</v>
+        <v>20331126</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1842,7 +1832,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="11">
-        <v>20324226</v>
+        <v>20360896</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1850,7 +1840,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="11">
-        <v>20324227</v>
+        <v>20341017</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1858,7 +1848,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="11">
-        <v>20325252</v>
+        <v>20314863</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1866,7 +1856,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="11">
-        <v>20326425</v>
+        <v>20319296</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1874,7 +1864,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="11">
-        <v>20326427</v>
+        <v>20330454</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1882,7 +1872,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="11">
-        <v>20326454</v>
+        <v>20314900</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1890,7 +1880,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="11">
-        <v>20327586</v>
+        <v>20326454</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1898,7 +1888,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="11">
-        <v>20327603</v>
+        <v>69880817</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1906,7 +1896,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="11">
-        <v>20327608</v>
+        <v>20313042</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1914,7 +1904,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="7">
-        <v>20328108</v>
+        <v>69767776</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1922,7 +1912,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="11">
-        <v>20328116</v>
+        <v>20340348</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1930,7 +1920,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="11">
-        <v>20328126</v>
+        <v>20362773</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1938,7 +1928,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="7">
-        <v>20328132</v>
+        <v>20327586</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1946,7 +1936,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="8">
-        <v>20328152</v>
+        <v>20326427</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1954,7 +1944,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="7">
-        <v>20328153</v>
+        <v>20328460</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1962,7 +1952,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="11">
-        <v>20328460</v>
+        <v>20330118</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1970,7 +1960,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="11">
-        <v>20328945</v>
+        <v>20328981</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1978,7 +1968,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="7">
-        <v>20328962</v>
+        <v>20328132</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1986,7 +1976,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="11">
-        <v>20328971</v>
+        <v>20306055</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -1994,7 +1984,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="8">
-        <v>20328981</v>
+        <v>20320251</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2002,7 +1992,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="11">
-        <v>20329527</v>
+        <v>20330038</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2010,7 +2000,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="11">
-        <v>20329859</v>
+        <v>69756197</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2018,7 +2008,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="11">
-        <v>20330038</v>
+        <v>20310436</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2026,7 +2016,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="11">
-        <v>20330118</v>
+        <v>20321842</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2034,7 +2024,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="11">
-        <v>20330119</v>
+        <v>20360536</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2042,7 +2032,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="11">
-        <v>20330307</v>
+        <v>20361510</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2050,7 +2040,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="11">
-        <v>20330334</v>
+        <v>20329859</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2058,7 +2048,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="11">
-        <v>20330454</v>
+        <v>20326425</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2066,7 +2056,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5">
-        <v>20331126</v>
+        <v>20341442</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2074,7 +2064,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="11">
-        <v>20337648</v>
+        <v>69947441</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2082,7 +2072,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5">
-        <v>20339029</v>
+        <v>20317482</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2090,7 +2080,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="6">
-        <v>20339040</v>
+        <v>20329527</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2098,7 +2088,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="11">
-        <v>20339066</v>
+        <v>69900547</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2106,7 +2096,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="11">
-        <v>20339165</v>
+        <v>20338281</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2114,7 +2104,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="6">
-        <v>20340348</v>
+        <v>69968899</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2122,7 +2112,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="11">
-        <v>20341010</v>
+        <v>20312897</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2130,7 +2120,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="11">
-        <v>20341017</v>
+        <v>20327608</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2138,7 +2128,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="11">
-        <v>20341206</v>
+        <v>20327603</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2146,7 +2136,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="11">
-        <v>20341390</v>
+        <v>20325252</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2154,7 +2144,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="11">
-        <v>20341442</v>
+        <v>20324227</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2170,7 +2160,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="11">
-        <v>20352230</v>
+        <v>20300710</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2178,7 +2168,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="11">
-        <v>20352397</v>
+        <v>20328108</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2186,7 +2176,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="11">
-        <v>20360275</v>
+        <v>20328945</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2194,7 +2184,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="11">
-        <v>20360301</v>
+        <v>20328126</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2202,7 +2192,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5">
-        <v>20360363</v>
+        <v>20323505</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2210,7 +2200,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="5">
-        <v>20360536</v>
+        <v>20337648</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2218,7 +2208,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="5">
-        <v>20360896</v>
+        <v>20328971</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2226,7 +2216,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="6">
-        <v>20361045</v>
+        <v>20306803</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2234,7 +2224,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="11">
-        <v>20361510</v>
+        <v>20324226</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2242,7 +2232,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="6">
-        <v>20362773</v>
+        <v>20311044</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2250,7 +2240,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="6">
-        <v>20400432</v>
+        <v>20308436</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2258,7 +2248,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="6">
-        <v>20400446</v>
+        <v>20310441</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2266,7 +2256,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="11">
-        <v>20400449</v>
+        <v>69851465</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2274,7 +2264,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="11">
-        <v>20401137</v>
+        <v>20341390</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2282,7 +2272,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="6">
-        <v>20401176</v>
+        <v>20352230</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2290,7 +2280,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="11">
-        <v>20401192</v>
+        <v>20301899</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2298,7 +2288,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="5">
-        <v>20401194</v>
+        <v>20360275</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2306,7 +2296,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="11">
-        <v>20401304</v>
+        <v>20341206</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2314,7 +2304,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="6">
-        <v>20401315</v>
+        <v>20330334</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2322,7 +2312,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="11">
-        <v>20402089</v>
+        <v>20300693</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2330,7 +2320,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="11">
-        <v>20402093</v>
+        <v>20339066</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2338,7 +2328,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="11">
-        <v>20402133</v>
+        <v>20330307</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2346,7 +2336,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="6">
-        <v>20402787</v>
+        <v>20341010</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2354,7 +2344,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="6">
-        <v>20402815</v>
+        <v>20315656</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2362,7 +2352,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="11">
-        <v>20402840</v>
+        <v>20330119</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2370,7 +2360,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="6">
-        <v>20403275</v>
+        <v>20360301</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2378,7 +2368,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="11">
-        <v>20403285</v>
+        <v>20321425</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2386,7 +2376,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="11">
-        <v>20404181</v>
+        <v>20313046</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2394,7 +2384,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="5">
-        <v>20404182</v>
+        <v>20328116</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2402,7 +2392,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="11">
-        <v>20407419</v>
+        <v>69756191</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2410,7 +2400,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="11">
-        <v>20411873</v>
+        <v>20500411</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2418,7 +2408,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="6">
-        <v>20500411</v>
+        <v>20511947</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2426,7 +2416,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="11">
-        <v>20500423</v>
+        <v>20521707</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2434,7 +2424,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="6">
-        <v>20500424</v>
+        <v>20503434</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2442,7 +2432,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="6">
-        <v>20501715</v>
+        <v>20534398</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2450,7 +2440,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="5">
-        <v>20501720</v>
+        <v>20523758</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2458,7 +2448,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="6">
-        <v>20503434</v>
+        <v>20554606</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2466,7 +2456,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="6">
-        <v>20504482</v>
+        <v>20501715</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2474,7 +2464,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="11">
-        <v>20505033</v>
+        <v>20504482</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2482,7 +2472,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="11">
-        <v>20506248</v>
+        <v>20566563</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2490,7 +2480,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="11">
-        <v>20506249</v>
+        <v>20541264</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2498,7 +2488,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="11">
-        <v>20507700</v>
+        <v>69827649</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2506,7 +2496,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="11">
-        <v>20507704</v>
+        <v>20523754</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2514,7 +2504,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="5">
-        <v>20508448</v>
+        <v>20501720</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2522,7 +2512,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="5">
-        <v>20511013</v>
+        <v>20570902</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2530,7 +2520,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="11">
-        <v>20511015</v>
+        <v>69772328</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2538,7 +2528,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="6">
-        <v>20511947</v>
+        <v>69913857</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2546,7 +2536,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="11">
-        <v>20515438</v>
+        <v>20517758</v>
       </c>
     </row>
     <row r="273" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2554,7 +2544,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="11">
-        <v>20517742</v>
+        <v>20533814</v>
       </c>
     </row>
     <row r="274" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2562,7 +2552,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="6">
-        <v>20517758</v>
+        <v>20511013</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2570,7 +2560,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="6">
-        <v>20517759</v>
+        <v>20533813</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2578,7 +2568,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="5">
-        <v>20517761</v>
+        <v>20534784</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2586,7 +2576,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="5">
-        <v>20517762</v>
+        <v>20584049</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2594,7 +2584,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="11">
-        <v>20517766</v>
+        <v>20517761</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2602,7 +2592,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="11">
-        <v>20519149</v>
+        <v>20549236</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2610,7 +2600,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="11">
-        <v>20519278</v>
+        <v>20554341</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2618,7 +2608,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="5">
-        <v>20521707</v>
+        <v>20538340</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2626,7 +2616,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="5">
-        <v>20522636</v>
+        <v>20500424</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2634,7 +2624,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="11">
-        <v>20523754</v>
+        <v>20548802</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2642,7 +2632,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="11">
-        <v>20523757</v>
+        <v>20574699</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2650,7 +2640,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="6">
-        <v>20523758</v>
+        <v>20517762</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2658,7 +2648,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="11">
-        <v>20523760</v>
+        <v>20525592</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2666,7 +2656,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="11">
-        <v>20525592</v>
+        <v>20553265</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2674,7 +2664,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="11">
-        <v>20525627</v>
+        <v>20554381</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2682,7 +2672,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="11">
-        <v>20525629</v>
+        <v>20511015</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2690,7 +2680,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="11">
-        <v>20528658</v>
+        <v>20548745</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2698,7 +2688,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="11">
-        <v>20532182</v>
+        <v>20517759</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2706,7 +2696,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="11">
-        <v>20533643</v>
+        <v>20554703</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2714,7 +2704,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="6">
-        <v>20533813</v>
+        <v>20508448</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2722,7 +2712,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="6">
-        <v>20533814</v>
+        <v>20528658</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2730,7 +2720,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="11">
-        <v>20533816</v>
+        <v>20540110</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2738,7 +2728,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="11">
-        <v>20534176</v>
+        <v>20507704</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2746,7 +2736,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="6">
-        <v>20534398</v>
+        <v>20519149</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2754,7 +2744,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="11">
-        <v>20534783</v>
+        <v>20533816</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2762,7 +2752,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="6">
-        <v>20534784</v>
+        <v>20522636</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2770,7 +2760,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="5">
-        <v>20538340</v>
+        <v>20542509</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2778,7 +2768,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="11">
-        <v>20539814</v>
+        <v>20532182</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2786,7 +2776,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="6">
-        <v>20540110</v>
+        <v>20534176</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2794,7 +2784,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="5">
-        <v>20541264</v>
+        <v>20549029</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2802,7 +2792,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="11">
-        <v>20542509</v>
+        <v>20525629</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2810,7 +2800,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="11">
-        <v>20546877</v>
+        <v>20533643</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2826,7 +2816,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="5">
-        <v>20548745</v>
+        <v>20568697</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2834,7 +2824,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="11">
-        <v>20548802</v>
+        <v>20515438</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2842,7 +2832,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="11">
-        <v>20549029</v>
+        <v>20523757</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2850,7 +2840,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="11">
-        <v>20549236</v>
+        <v>20525627</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2858,7 +2848,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="11">
-        <v>20549504</v>
+        <v>20517766</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2866,7 +2856,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="11">
-        <v>20553265</v>
+        <v>20534783</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2874,7 +2864,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="6">
-        <v>20554341</v>
+        <v>20554359</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2882,7 +2872,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="11">
-        <v>20554359</v>
+        <v>20500423</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2890,7 +2880,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="5">
-        <v>20554381</v>
+        <v>20523760</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2898,7 +2888,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="6">
-        <v>20554606</v>
+        <v>20506248</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2906,7 +2896,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="11">
-        <v>20554703</v>
+        <v>20507700</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2914,7 +2904,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="5">
-        <v>20566563</v>
+        <v>20546877</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2922,7 +2912,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="11">
-        <v>20568697</v>
+        <v>20539814</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2930,7 +2920,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="11">
-        <v>20570902</v>
+        <v>69930561</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2938,7 +2928,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="11">
-        <v>20574699</v>
+        <v>20517742</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2946,7 +2936,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="11">
-        <v>20584049</v>
+        <v>20549504</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2954,7 +2944,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="11">
-        <v>20600560</v>
+        <v>20519278</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2962,7 +2952,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="5">
-        <v>20603253</v>
+        <v>20505033</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2970,7 +2960,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="11">
-        <v>20603309</v>
+        <v>20506249</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2978,7 +2968,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="11">
-        <v>20605114</v>
+        <v>30108295</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2986,7 +2976,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="6">
-        <v>20606250</v>
+        <v>30107398</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -2994,7 +2984,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="11">
-        <v>20606899</v>
+        <v>30105519</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3002,7 +2992,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="11">
-        <v>20607491</v>
+        <v>30107328</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3010,7 +3000,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="11">
-        <v>20607834</v>
+        <v>30102514</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3018,7 +3008,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="6">
-        <v>20607837</v>
+        <v>30105521</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3026,7 +3016,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="11">
-        <v>20607873</v>
+        <v>30109301</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3034,7 +3024,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="5">
-        <v>20613439</v>
+        <v>30105230</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3042,7 +3032,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="11">
-        <v>20613916</v>
+        <v>30100364</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3050,7 +3040,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="11">
-        <v>20614509</v>
+        <v>30103487</v>
       </c>
     </row>
     <row r="336" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3058,7 +3048,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="5">
-        <v>20614616</v>
+        <v>30109724</v>
       </c>
     </row>
     <row r="337" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3066,7 +3056,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="5">
-        <v>20615093</v>
+        <v>30304604</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3074,7 +3064,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="5">
-        <v>20616368</v>
+        <v>30304520</v>
       </c>
     </row>
     <row r="339" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3082,7 +3072,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="5">
-        <v>20622268</v>
+        <v>30304270</v>
       </c>
     </row>
     <row r="340" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3090,7 +3080,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="11">
-        <v>20622306</v>
+        <v>30304268</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3098,7 +3088,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="11">
-        <v>30100364</v>
+        <v>30304286</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3106,7 +3096,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="11">
-        <v>30102514</v>
+        <v>30312532</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3114,7 +3104,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="11">
-        <v>30103487</v>
+        <v>30203491</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3122,7 +3112,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="5">
-        <v>30105230</v>
+        <v>30400230</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3130,7 +3120,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="6">
-        <v>30105519</v>
+        <v>30409918</v>
       </c>
     </row>
     <row r="346" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3138,7 +3128,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="11">
-        <v>30105521</v>
+        <v>30405265</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3146,7 +3136,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="11">
-        <v>30107328</v>
+        <v>30401508</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3154,7 +3144,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="11">
-        <v>30107398</v>
+        <v>30400114</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3162,7 +3152,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="11">
-        <v>30108295</v>
+        <v>30402083</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3170,7 +3160,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="11">
-        <v>30109301</v>
+        <v>30401782</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3178,7 +3168,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="11">
-        <v>30109724</v>
+        <v>30407767</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3186,7 +3176,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="11">
-        <v>30203491</v>
+        <v>30401516</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3194,7 +3184,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="11">
-        <v>30304268</v>
+        <v>30402596</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3202,7 +3192,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="11">
-        <v>30304270</v>
+        <v>30401713</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3210,7 +3200,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="11">
-        <v>30304286</v>
+        <v>30401714</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3218,7 +3208,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="11">
-        <v>30304520</v>
+        <v>30405247</v>
       </c>
     </row>
     <row r="357" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3226,7 +3216,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="5">
-        <v>30304604</v>
+        <v>11000439</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3234,7 +3224,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="11">
-        <v>30312532</v>
+        <v>11003119</v>
       </c>
     </row>
     <row r="359" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3242,7 +3232,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="11">
-        <v>30400114</v>
+        <v>11000382</v>
       </c>
     </row>
     <row r="360" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3250,7 +3240,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="11">
-        <v>30400230</v>
+        <v>10804184</v>
       </c>
     </row>
     <row r="361" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3258,7 +3248,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="11">
-        <v>30401508</v>
+        <v>10812426</v>
       </c>
     </row>
     <row r="362" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3266,7 +3256,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="11">
-        <v>30401516</v>
+        <v>69862566</v>
       </c>
     </row>
     <row r="363" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3274,7 +3264,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="11">
-        <v>30401713</v>
+        <v>10814657</v>
       </c>
     </row>
     <row r="364" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3282,7 +3272,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="11">
-        <v>30401714</v>
+        <v>10805046</v>
       </c>
     </row>
     <row r="365" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3290,7 +3280,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="6">
-        <v>30401782</v>
+        <v>10807229</v>
       </c>
     </row>
     <row r="366" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3298,7 +3288,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="5">
-        <v>30402083</v>
+        <v>69754002</v>
       </c>
     </row>
     <row r="367" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3306,7 +3296,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="6">
-        <v>30402596</v>
+        <v>10807614</v>
       </c>
     </row>
     <row r="368" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3314,7 +3304,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="11">
-        <v>30405247</v>
+        <v>10814962</v>
       </c>
     </row>
     <row r="369" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3322,7 +3312,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="11">
-        <v>30405265</v>
+        <v>10807613</v>
       </c>
     </row>
     <row r="370" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3330,7 +3320,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="6">
-        <v>30407767</v>
+        <v>10802055</v>
       </c>
     </row>
     <row r="371" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3338,7 +3328,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="5">
-        <v>30409918</v>
+        <v>60105436</v>
       </c>
     </row>
     <row r="372" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3346,7 +3336,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="5">
-        <v>40103059</v>
+        <v>60101983</v>
       </c>
     </row>
     <row r="373" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3354,7 +3344,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="6">
-        <v>40103207</v>
+        <v>60102779</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3362,7 +3352,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="11">
-        <v>40203629</v>
+        <v>60101987</v>
       </c>
     </row>
     <row r="375" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3370,7 +3360,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="11">
-        <v>40300604</v>
+        <v>69849370</v>
       </c>
     </row>
     <row r="376" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3378,7 +3368,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="11">
-        <v>40307389</v>
+        <v>60200779</v>
       </c>
     </row>
     <row r="377" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3386,7 +3376,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="11">
-        <v>40307845</v>
+        <v>50220769</v>
       </c>
     </row>
     <row r="378" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3394,7 +3384,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="5">
-        <v>40310796</v>
+        <v>20200607</v>
       </c>
     </row>
     <row r="379" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3402,7 +3392,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="11">
-        <v>40311963</v>
+        <v>50205416</v>
       </c>
     </row>
     <row r="380" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3410,7 +3400,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="11">
-        <v>40311967</v>
+        <v>50205626</v>
       </c>
     </row>
     <row r="381" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3418,7 +3408,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="11">
-        <v>40311969</v>
+        <v>50203317</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3426,7 +3416,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="6">
-        <v>40314105</v>
+        <v>20616038</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3434,7 +3424,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="6">
-        <v>40402775</v>
+        <v>50220438</v>
       </c>
     </row>
     <row r="384" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3442,7 +3432,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="11">
-        <v>40403566</v>
+        <v>50204505</v>
       </c>
     </row>
     <row r="385" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3450,7 +3440,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="6">
-        <v>40500181</v>
+        <v>50204465</v>
       </c>
     </row>
     <row r="386" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3458,7 +3448,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="11">
-        <v>40500380</v>
+        <v>50219548</v>
       </c>
     </row>
     <row r="387" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3466,7 +3456,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="11">
-        <v>40501064</v>
+        <v>50205616</v>
       </c>
     </row>
     <row r="388" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3474,7 +3464,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="11">
-        <v>40501682</v>
+        <v>50308344</v>
       </c>
     </row>
     <row r="389" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3482,7 +3472,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="11">
-        <v>40501858</v>
+        <v>50301399</v>
       </c>
     </row>
     <row r="390" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3490,7 +3480,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="11">
-        <v>40601490</v>
+        <v>69775283</v>
       </c>
     </row>
     <row r="391" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3498,7 +3488,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="5">
-        <v>40601491</v>
+        <v>50304778</v>
       </c>
     </row>
     <row r="392" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3506,7 +3496,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="11">
-        <v>40604625</v>
+        <v>50302628</v>
       </c>
     </row>
     <row r="393" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3514,7 +3504,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="11">
-        <v>50100288</v>
+        <v>50302299</v>
       </c>
     </row>
     <row r="394" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3522,7 +3512,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="11">
-        <v>50100289</v>
+        <v>50305267</v>
       </c>
     </row>
     <row r="395" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3530,7 +3520,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="11">
-        <v>50103727</v>
+        <v>50304992</v>
       </c>
     </row>
     <row r="396" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3538,7 +3528,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="11">
-        <v>50105503</v>
+        <v>69888491</v>
       </c>
     </row>
     <row r="397" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3546,7 +3536,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="6">
-        <v>50203317</v>
+        <v>50304991</v>
       </c>
     </row>
     <row r="398" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3554,7 +3544,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="11">
-        <v>50204465</v>
+        <v>60300189</v>
       </c>
     </row>
     <row r="399" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3562,7 +3552,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="11">
-        <v>50204505</v>
+        <v>60400380</v>
       </c>
     </row>
     <row r="400" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3570,7 +3560,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="11">
-        <v>50205416</v>
+        <v>10494574</v>
       </c>
     </row>
     <row r="401" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3578,7 +3568,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="11">
-        <v>50205616</v>
+        <v>10494620</v>
       </c>
     </row>
     <row r="402" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3586,7 +3576,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="5">
-        <v>50205626</v>
+        <v>10402106</v>
       </c>
     </row>
     <row r="403" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3594,7 +3584,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="11">
-        <v>50219548</v>
+        <v>10494319</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3602,7 +3592,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="6">
-        <v>50219959</v>
+        <v>10403923</v>
       </c>
     </row>
     <row r="405" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3610,7 +3600,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="6">
-        <v>50220438</v>
+        <v>69773566</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3618,7 +3608,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="6">
-        <v>50220769</v>
+        <v>10400262</v>
       </c>
     </row>
     <row r="407" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3626,7 +3616,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="5">
-        <v>50301399</v>
+        <v>10404309</v>
       </c>
     </row>
     <row r="408" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3634,7 +3624,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="11">
-        <v>50302299</v>
+        <v>10495604</v>
       </c>
     </row>
     <row r="409" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3642,7 +3632,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="11">
-        <v>50302628</v>
+        <v>40601490</v>
       </c>
     </row>
     <row r="410" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3650,7 +3640,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="6">
-        <v>50304778</v>
+        <v>40601491</v>
       </c>
     </row>
     <row r="411" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3658,7 +3648,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="11">
-        <v>50304991</v>
+        <v>40604625</v>
       </c>
     </row>
     <row r="412" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3666,7 +3656,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="11">
-        <v>50304992</v>
+        <v>69761931</v>
       </c>
     </row>
     <row r="413" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3674,7 +3664,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="11">
-        <v>50305267</v>
+        <v>40314105</v>
       </c>
     </row>
     <row r="414" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3682,7 +3672,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="6">
-        <v>50308344</v>
+        <v>40311963</v>
       </c>
     </row>
     <row r="415" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3690,7 +3680,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="11">
-        <v>60101983</v>
+        <v>40311967</v>
       </c>
     </row>
     <row r="416" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3698,7 +3688,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="11">
-        <v>60101987</v>
+        <v>40310796</v>
       </c>
     </row>
     <row r="417" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3706,7 +3696,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="11">
-        <v>60102779</v>
+        <v>40307389</v>
       </c>
     </row>
     <row r="418" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3714,7 +3704,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="11">
-        <v>60105436</v>
+        <v>40307845</v>
       </c>
     </row>
     <row r="419" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3722,7 +3712,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="11">
-        <v>60200779</v>
+        <v>40300604</v>
       </c>
     </row>
     <row r="420" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3730,7 +3720,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="5">
-        <v>60300189</v>
+        <v>40311969</v>
       </c>
     </row>
     <row r="421" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3738,7 +3728,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="11">
-        <v>60400380</v>
+        <v>40203629</v>
       </c>
     </row>
     <row r="422" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3746,7 +3736,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="5">
-        <v>60725432</v>
+        <v>40402775</v>
       </c>
     </row>
     <row r="423" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3754,7 +3744,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="6">
-        <v>60726515</v>
+        <v>40403566</v>
       </c>
     </row>
     <row r="424" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3762,7 +3752,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="11">
-        <v>60728389</v>
+        <v>40103207</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3770,7 +3760,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="11">
-        <v>60729364</v>
+        <v>40103059</v>
       </c>
     </row>
     <row r="426" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3778,7 +3768,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="11">
-        <v>69727436</v>
+        <v>10304893</v>
       </c>
     </row>
     <row r="427" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3786,7 +3776,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="6">
-        <v>69734356</v>
+        <v>10303507</v>
       </c>
     </row>
     <row r="428" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3794,7 +3784,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="11">
-        <v>69752443</v>
+        <v>10303913</v>
       </c>
     </row>
     <row r="429" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3802,7 +3792,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="11">
-        <v>69754002</v>
+        <v>10310877</v>
       </c>
     </row>
     <row r="430" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3810,7 +3800,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="11">
-        <v>69756191</v>
+        <v>10300825</v>
       </c>
     </row>
     <row r="431" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3818,7 +3808,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="11">
-        <v>69756197</v>
+        <v>10308093</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3826,7 +3816,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="11">
-        <v>69758143</v>
+        <v>10603684</v>
       </c>
     </row>
     <row r="433" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3834,7 +3824,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="11">
-        <v>69759252</v>
+        <v>10609726</v>
       </c>
     </row>
     <row r="434" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3842,7 +3832,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="11">
-        <v>69759278</v>
+        <v>10604624</v>
       </c>
     </row>
     <row r="435" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3850,7 +3840,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="11">
-        <v>69761931</v>
+        <v>10601343</v>
       </c>
     </row>
     <row r="436" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3858,7 +3848,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="6">
-        <v>69767776</v>
+        <v>10646355</v>
       </c>
     </row>
     <row r="437" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3866,7 +3856,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="5">
-        <v>69772328</v>
+        <v>69880742</v>
       </c>
     </row>
     <row r="438" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3874,7 +3864,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="5">
-        <v>69773566</v>
+        <v>10204073</v>
       </c>
     </row>
     <row r="439" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3882,7 +3872,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="6">
-        <v>69775283</v>
+        <v>10260919</v>
       </c>
     </row>
     <row r="440" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3890,7 +3880,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="6">
-        <v>69827649</v>
+        <v>10259915</v>
       </c>
     </row>
     <row r="441" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3898,7 +3888,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="5">
-        <v>69830643</v>
+        <v>10260807</v>
       </c>
     </row>
     <row r="442" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3906,7 +3896,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="6">
-        <v>69849370</v>
+        <v>10203547</v>
       </c>
     </row>
     <row r="443" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3914,7 +3904,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="11">
-        <v>69851465</v>
+        <v>10211061</v>
       </c>
     </row>
     <row r="444" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3922,7 +3912,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="11">
-        <v>69852822</v>
+        <v>10214028</v>
       </c>
     </row>
     <row r="445" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3930,7 +3920,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="11">
-        <v>69856657</v>
+        <v>10259665</v>
       </c>
     </row>
     <row r="446" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3938,7 +3928,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="5">
-        <v>69862566</v>
+        <v>10220602</v>
       </c>
     </row>
     <row r="447" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3946,7 +3936,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="6">
-        <v>69877402</v>
+        <v>10206514</v>
       </c>
     </row>
     <row r="448" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3954,7 +3944,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="11">
-        <v>69880742</v>
+        <v>10261412</v>
       </c>
     </row>
     <row r="449" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3962,7 +3952,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="5">
-        <v>69880817</v>
+        <v>69759278</v>
       </c>
     </row>
     <row r="450" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3970,7 +3960,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="11">
-        <v>69882371</v>
+        <v>10214027</v>
       </c>
     </row>
     <row r="451" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3978,7 +3968,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="11">
-        <v>69888491</v>
+        <v>10261695</v>
       </c>
     </row>
     <row r="452" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3986,7 +3976,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="5">
-        <v>69897257</v>
+        <v>10211075</v>
       </c>
     </row>
     <row r="453" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -3994,7 +3984,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="11">
-        <v>69899478</v>
+        <v>10211092</v>
       </c>
     </row>
     <row r="454" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4002,7 +3992,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="6">
-        <v>69913857</v>
+        <v>10212136</v>
       </c>
     </row>
     <row r="455" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4010,7 +4000,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="11">
-        <v>69930561</v>
+        <v>10210766</v>
       </c>
     </row>
     <row r="456" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4018,7 +4008,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="11">
-        <v>69934151</v>
+        <v>10259305</v>
       </c>
     </row>
     <row r="457" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4026,7 +4016,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="11">
-        <v>69946696</v>
+        <v>10211096</v>
       </c>
     </row>
     <row r="458" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4034,7 +4024,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="11">
-        <v>69947441</v>
+        <v>10211592</v>
       </c>
     </row>
     <row r="459" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4042,7 +4032,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="11">
-        <v>69948040</v>
+        <v>10220307</v>
       </c>
     </row>
     <row r="460" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4050,7 +4040,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="6">
-        <v>69955278</v>
+        <v>10205204</v>
       </c>
     </row>
     <row r="461" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4058,7 +4048,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="5">
-        <v>69967704</v>
+        <v>10211227</v>
       </c>
     </row>
     <row r="462" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4066,7 +4056,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="11">
-        <v>69968899</v>
+        <v>10205190</v>
       </c>
     </row>
     <row r="463" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
@@ -4074,7 +4064,15 @@
         <v>462</v>
       </c>
       <c r="B463" s="11">
-        <v>69990904</v>
+        <v>50103638</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A464" s="2">
+        <v>463</v>
+      </c>
+      <c r="B464" s="11">
+        <v>20566440</v>
       </c>
     </row>
   </sheetData>
@@ -4082,8 +4080,8 @@
     <sortCondition ref="B2:B463"/>
   </sortState>
   <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/public/template_sekolah.xlsx
+++ b/public/template_sekolah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A146E47-F102-4272-A538-5A3CB86B0A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2423607-CF69-499F-9007-A039BCF304E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B0C8D-E1AC-452B-9B63-7AAC23FA97FE}">
   <dimension ref="A1:B464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
-      <selection activeCell="C434" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="10">
-        <v>20606898</v>
+        <v>20613439</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
